--- a/01_基本設計書/20200220リリース/SC-K00A_実績参照メニュー.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K00A_実績参照メニュー.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\マスタ\20191023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14773270-6DF6-4549-89D7-AD5DDF3344FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBF801E6-5BB1-45E2-BE8A-406FF068F829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="420" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -763,10 +764,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>SC-K00A</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>実績参照メニュー</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1321,6 +1318,10 @@
   </si>
   <si>
     <t>その他出庫参照・取消画面を開く</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>K-00A</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2009,6 +2010,33 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2016,53 +2044,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2095,6 +2076,71 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2112,24 +2158,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2178,33 +2206,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3464,108 +3465,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="83"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="83"/>
-      <c r="Z32" s="83"/>
-      <c r="AA32" s="83"/>
-      <c r="AB32" s="83"/>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="83"/>
-      <c r="AE32" s="83"/>
-      <c r="AF32" s="83"/>
-      <c r="AG32" s="83"/>
-      <c r="AH32" s="83"/>
-      <c r="AI32" s="83"/>
-      <c r="AJ32" s="83"/>
-      <c r="AK32" s="83"/>
-      <c r="AL32" s="83"/>
-      <c r="AM32" s="83"/>
-      <c r="AN32" s="83"/>
-      <c r="AO32" s="83"/>
-      <c r="AP32" s="83"/>
-      <c r="AQ32" s="83"/>
-      <c r="AR32" s="83"/>
-      <c r="AS32" s="83"/>
-      <c r="AT32" s="83"/>
-      <c r="AU32" s="83"/>
-      <c r="AV32" s="83"/>
-      <c r="AW32" s="83"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="92"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="92"/>
+      <c r="AL32" s="92"/>
+      <c r="AM32" s="92"/>
+      <c r="AN32" s="92"/>
+      <c r="AO32" s="92"/>
+      <c r="AP32" s="92"/>
+      <c r="AQ32" s="92"/>
+      <c r="AR32" s="92"/>
+      <c r="AS32" s="92"/>
+      <c r="AT32" s="92"/>
+      <c r="AU32" s="92"/>
+      <c r="AV32" s="92"/>
+      <c r="AW32" s="92"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="84"/>
-      <c r="AH33" s="84"/>
-      <c r="AI33" s="84"/>
-      <c r="AJ33" s="84"/>
-      <c r="AK33" s="84"/>
-      <c r="AL33" s="84"/>
-      <c r="AM33" s="84"/>
-      <c r="AN33" s="84"/>
-      <c r="AO33" s="84"/>
-      <c r="AP33" s="84"/>
-      <c r="AQ33" s="84"/>
-      <c r="AR33" s="84"/>
-      <c r="AS33" s="84"/>
-      <c r="AT33" s="84"/>
-      <c r="AU33" s="84"/>
-      <c r="AV33" s="84"/>
-      <c r="AW33" s="84"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="93"/>
+      <c r="AJ33" s="93"/>
+      <c r="AK33" s="93"/>
+      <c r="AL33" s="93"/>
+      <c r="AM33" s="93"/>
+      <c r="AN33" s="93"/>
+      <c r="AO33" s="93"/>
+      <c r="AP33" s="93"/>
+      <c r="AQ33" s="93"/>
+      <c r="AR33" s="93"/>
+      <c r="AS33" s="93"/>
+      <c r="AT33" s="93"/>
+      <c r="AU33" s="93"/>
+      <c r="AV33" s="93"/>
+      <c r="AW33" s="93"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -3603,55 +3604,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="85"/>
-      <c r="AF35" s="85"/>
-      <c r="AG35" s="85"/>
-      <c r="AH35" s="85"/>
-      <c r="AI35" s="85"/>
-      <c r="AJ35" s="85"/>
-      <c r="AK35" s="85"/>
-      <c r="AL35" s="85"/>
-      <c r="AM35" s="85"/>
-      <c r="AN35" s="85"/>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="85"/>
-      <c r="AQ35" s="85"/>
-      <c r="AR35" s="85"/>
-      <c r="AS35" s="85"/>
-      <c r="AT35" s="85"/>
-      <c r="AU35" s="85"/>
-      <c r="AV35" s="85"/>
-      <c r="AW35" s="85"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="94"/>
+      <c r="AI35" s="94"/>
+      <c r="AJ35" s="94"/>
+      <c r="AK35" s="94"/>
+      <c r="AL35" s="94"/>
+      <c r="AM35" s="94"/>
+      <c r="AN35" s="94"/>
+      <c r="AO35" s="94"/>
+      <c r="AP35" s="94"/>
+      <c r="AQ35" s="94"/>
+      <c r="AR35" s="94"/>
+      <c r="AS35" s="94"/>
+      <c r="AT35" s="94"/>
+      <c r="AU35" s="94"/>
+      <c r="AV35" s="94"/>
+      <c r="AW35" s="94"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -3686,1779 +3687,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="95"/>
+      <c r="AR1" s="95"/>
+      <c r="AS1" s="95"/>
+      <c r="AT1" s="95"/>
+      <c r="AU1" s="95"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="104"/>
-      <c r="AW2" s="104"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="107" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="107" t="s">
+      <c r="K3" s="100"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="105" t="s">
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105" t="s">
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="105"/>
-      <c r="AN3" s="105" t="s">
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="105"/>
-      <c r="AP3" s="105"/>
-      <c r="AQ3" s="105"/>
-      <c r="AR3" s="105"/>
-      <c r="AS3" s="105" t="s">
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
+      <c r="AS3" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="105"/>
-      <c r="AU3" s="105"/>
-      <c r="AV3" s="105"/>
-      <c r="AW3" s="105"/>
+      <c r="AT3" s="97"/>
+      <c r="AU3" s="97"/>
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="97"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="87">
+      <c r="B5" s="106">
         <v>1</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="101">
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="111">
         <v>43768</v>
       </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="89" t="s">
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89" t="s">
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="86" t="s">
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="98" t="s">
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="86" t="s">
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="AO5" s="86"/>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="86"/>
-      <c r="AR5" s="86"/>
-      <c r="AS5" s="86"/>
-      <c r="AT5" s="86"/>
-      <c r="AU5" s="86"/>
-      <c r="AV5" s="86"/>
-      <c r="AW5" s="86"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="86"/>
-      <c r="AO6" s="86"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="86"/>
-      <c r="AR6" s="86"/>
-      <c r="AS6" s="86"/>
-      <c r="AT6" s="86"/>
-      <c r="AU6" s="86"/>
-      <c r="AV6" s="86"/>
-      <c r="AW6" s="86"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="110"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="110"/>
+      <c r="AH6" s="110"/>
+      <c r="AI6" s="110"/>
+      <c r="AJ6" s="110"/>
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110"/>
+      <c r="AM6" s="110"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105"/>
+      <c r="AW6" s="105"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="86"/>
-      <c r="AO7" s="86"/>
-      <c r="AP7" s="86"/>
-      <c r="AQ7" s="86"/>
-      <c r="AR7" s="86"/>
-      <c r="AS7" s="86"/>
-      <c r="AT7" s="86"/>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="86"/>
-      <c r="AW7" s="86"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="110"/>
+      <c r="AJ7" s="110"/>
+      <c r="AK7" s="110"/>
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="110"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="110"/>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="98"/>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="110"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="105"/>
+      <c r="AW9" s="105"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="98"/>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="86"/>
-      <c r="AW10" s="86"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="110"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="110"/>
+      <c r="AN10" s="105"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="105"/>
+      <c r="AQ10" s="105"/>
+      <c r="AR10" s="105"/>
+      <c r="AS10" s="105"/>
+      <c r="AT10" s="105"/>
+      <c r="AU10" s="105"/>
+      <c r="AV10" s="105"/>
+      <c r="AW10" s="105"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="99"/>
-      <c r="AJ11" s="99"/>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="86"/>
-      <c r="AO11" s="86"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="86"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="86"/>
-      <c r="AV11" s="86"/>
-      <c r="AW11" s="86"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="115"/>
+      <c r="AC11" s="115"/>
+      <c r="AD11" s="115"/>
+      <c r="AE11" s="115"/>
+      <c r="AF11" s="115"/>
+      <c r="AG11" s="115"/>
+      <c r="AH11" s="115"/>
+      <c r="AI11" s="115"/>
+      <c r="AJ11" s="115"/>
+      <c r="AK11" s="115"/>
+      <c r="AL11" s="115"/>
+      <c r="AM11" s="115"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="105"/>
+      <c r="AT11" s="105"/>
+      <c r="AU11" s="105"/>
+      <c r="AV11" s="105"/>
+      <c r="AW11" s="105"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="92"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="86"/>
-      <c r="AO12" s="86"/>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="86"/>
-      <c r="AS12" s="86"/>
-      <c r="AT12" s="86"/>
-      <c r="AU12" s="86"/>
-      <c r="AV12" s="86"/>
-      <c r="AW12" s="86"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="114"/>
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="114"/>
+      <c r="AL12" s="114"/>
+      <c r="AM12" s="114"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="105"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="105"/>
+      <c r="AW12" s="105"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="86"/>
-      <c r="AO13" s="86"/>
-      <c r="AP13" s="86"/>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="86"/>
-      <c r="AS13" s="86"/>
-      <c r="AT13" s="86"/>
-      <c r="AU13" s="86"/>
-      <c r="AV13" s="86"/>
-      <c r="AW13" s="86"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="114"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="105"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="105"/>
+      <c r="AQ13" s="105"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="105"/>
+      <c r="AT13" s="105"/>
+      <c r="AU13" s="105"/>
+      <c r="AV13" s="105"/>
+      <c r="AW13" s="105"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="98"/>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="98"/>
-      <c r="AK14" s="98"/>
-      <c r="AL14" s="98"/>
-      <c r="AM14" s="98"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="86"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="110"/>
+      <c r="AJ14" s="110"/>
+      <c r="AK14" s="110"/>
+      <c r="AL14" s="110"/>
+      <c r="AM14" s="110"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="105"/>
+      <c r="AS14" s="105"/>
+      <c r="AT14" s="105"/>
+      <c r="AU14" s="105"/>
+      <c r="AV14" s="105"/>
+      <c r="AW14" s="105"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="92"/>
-      <c r="AL15" s="92"/>
-      <c r="AM15" s="92"/>
-      <c r="AN15" s="86"/>
-      <c r="AO15" s="86"/>
-      <c r="AP15" s="86"/>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="86"/>
-      <c r="AS15" s="86"/>
-      <c r="AT15" s="86"/>
-      <c r="AU15" s="86"/>
-      <c r="AV15" s="86"/>
-      <c r="AW15" s="86"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
+      <c r="AM15" s="114"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="105"/>
+      <c r="AT15" s="105"/>
+      <c r="AU15" s="105"/>
+      <c r="AV15" s="105"/>
+      <c r="AW15" s="105"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="92"/>
-      <c r="AL16" s="92"/>
-      <c r="AM16" s="92"/>
-      <c r="AN16" s="86"/>
-      <c r="AO16" s="86"/>
-      <c r="AP16" s="86"/>
-      <c r="AQ16" s="86"/>
-      <c r="AR16" s="86"/>
-      <c r="AS16" s="86"/>
-      <c r="AT16" s="86"/>
-      <c r="AU16" s="86"/>
-      <c r="AV16" s="86"/>
-      <c r="AW16" s="86"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="114"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="114"/>
+      <c r="AJ16" s="114"/>
+      <c r="AK16" s="114"/>
+      <c r="AL16" s="114"/>
+      <c r="AM16" s="114"/>
+      <c r="AN16" s="105"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="105"/>
+      <c r="AQ16" s="105"/>
+      <c r="AR16" s="105"/>
+      <c r="AS16" s="105"/>
+      <c r="AT16" s="105"/>
+      <c r="AU16" s="105"/>
+      <c r="AV16" s="105"/>
+      <c r="AW16" s="105"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="92"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="92"/>
-      <c r="AJ17" s="92"/>
-      <c r="AK17" s="92"/>
-      <c r="AL17" s="92"/>
-      <c r="AM17" s="92"/>
-      <c r="AN17" s="86"/>
-      <c r="AO17" s="86"/>
-      <c r="AP17" s="86"/>
-      <c r="AQ17" s="86"/>
-      <c r="AR17" s="86"/>
-      <c r="AS17" s="86"/>
-      <c r="AT17" s="86"/>
-      <c r="AU17" s="86"/>
-      <c r="AV17" s="86"/>
-      <c r="AW17" s="86"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" s="114"/>
+      <c r="AD17" s="114"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="114"/>
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="114"/>
+      <c r="AJ17" s="114"/>
+      <c r="AK17" s="114"/>
+      <c r="AL17" s="114"/>
+      <c r="AM17" s="114"/>
+      <c r="AN17" s="105"/>
+      <c r="AO17" s="105"/>
+      <c r="AP17" s="105"/>
+      <c r="AQ17" s="105"/>
+      <c r="AR17" s="105"/>
+      <c r="AS17" s="105"/>
+      <c r="AT17" s="105"/>
+      <c r="AU17" s="105"/>
+      <c r="AV17" s="105"/>
+      <c r="AW17" s="105"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="92"/>
-      <c r="AL18" s="92"/>
-      <c r="AM18" s="92"/>
-      <c r="AN18" s="86"/>
-      <c r="AO18" s="86"/>
-      <c r="AP18" s="86"/>
-      <c r="AQ18" s="86"/>
-      <c r="AR18" s="86"/>
-      <c r="AS18" s="86"/>
-      <c r="AT18" s="86"/>
-      <c r="AU18" s="86"/>
-      <c r="AV18" s="86"/>
-      <c r="AW18" s="86"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="114"/>
+      <c r="AC18" s="114"/>
+      <c r="AD18" s="114"/>
+      <c r="AE18" s="114"/>
+      <c r="AF18" s="114"/>
+      <c r="AG18" s="114"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="114"/>
+      <c r="AK18" s="114"/>
+      <c r="AL18" s="114"/>
+      <c r="AM18" s="114"/>
+      <c r="AN18" s="105"/>
+      <c r="AO18" s="105"/>
+      <c r="AP18" s="105"/>
+      <c r="AQ18" s="105"/>
+      <c r="AR18" s="105"/>
+      <c r="AS18" s="105"/>
+      <c r="AT18" s="105"/>
+      <c r="AU18" s="105"/>
+      <c r="AV18" s="105"/>
+      <c r="AW18" s="105"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="92"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="92"/>
-      <c r="AN19" s="86"/>
-      <c r="AO19" s="86"/>
-      <c r="AP19" s="86"/>
-      <c r="AQ19" s="86"/>
-      <c r="AR19" s="86"/>
-      <c r="AS19" s="86"/>
-      <c r="AT19" s="86"/>
-      <c r="AU19" s="86"/>
-      <c r="AV19" s="86"/>
-      <c r="AW19" s="86"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="114"/>
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="114"/>
+      <c r="AC19" s="114"/>
+      <c r="AD19" s="114"/>
+      <c r="AE19" s="114"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="114"/>
+      <c r="AH19" s="114"/>
+      <c r="AI19" s="114"/>
+      <c r="AJ19" s="114"/>
+      <c r="AK19" s="114"/>
+      <c r="AL19" s="114"/>
+      <c r="AM19" s="114"/>
+      <c r="AN19" s="105"/>
+      <c r="AO19" s="105"/>
+      <c r="AP19" s="105"/>
+      <c r="AQ19" s="105"/>
+      <c r="AR19" s="105"/>
+      <c r="AS19" s="105"/>
+      <c r="AT19" s="105"/>
+      <c r="AU19" s="105"/>
+      <c r="AV19" s="105"/>
+      <c r="AW19" s="105"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="92"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="86"/>
-      <c r="AO20" s="86"/>
-      <c r="AP20" s="86"/>
-      <c r="AQ20" s="86"/>
-      <c r="AR20" s="86"/>
-      <c r="AS20" s="86"/>
-      <c r="AT20" s="86"/>
-      <c r="AU20" s="86"/>
-      <c r="AV20" s="86"/>
-      <c r="AW20" s="86"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="114"/>
+      <c r="AJ20" s="114"/>
+      <c r="AK20" s="114"/>
+      <c r="AL20" s="114"/>
+      <c r="AM20" s="114"/>
+      <c r="AN20" s="105"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="105"/>
+      <c r="AQ20" s="105"/>
+      <c r="AR20" s="105"/>
+      <c r="AS20" s="105"/>
+      <c r="AT20" s="105"/>
+      <c r="AU20" s="105"/>
+      <c r="AV20" s="105"/>
+      <c r="AW20" s="105"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="92"/>
-      <c r="AL21" s="92"/>
-      <c r="AM21" s="92"/>
-      <c r="AN21" s="86"/>
-      <c r="AO21" s="86"/>
-      <c r="AP21" s="86"/>
-      <c r="AQ21" s="86"/>
-      <c r="AR21" s="86"/>
-      <c r="AS21" s="86"/>
-      <c r="AT21" s="86"/>
-      <c r="AU21" s="86"/>
-      <c r="AV21" s="86"/>
-      <c r="AW21" s="86"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="114"/>
+      <c r="AB21" s="114"/>
+      <c r="AC21" s="114"/>
+      <c r="AD21" s="114"/>
+      <c r="AE21" s="114"/>
+      <c r="AF21" s="114"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="114"/>
+      <c r="AI21" s="114"/>
+      <c r="AJ21" s="114"/>
+      <c r="AK21" s="114"/>
+      <c r="AL21" s="114"/>
+      <c r="AM21" s="114"/>
+      <c r="AN21" s="105"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="105"/>
+      <c r="AQ21" s="105"/>
+      <c r="AR21" s="105"/>
+      <c r="AS21" s="105"/>
+      <c r="AT21" s="105"/>
+      <c r="AU21" s="105"/>
+      <c r="AV21" s="105"/>
+      <c r="AW21" s="105"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="92"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="92"/>
-      <c r="AK22" s="92"/>
-      <c r="AL22" s="92"/>
-      <c r="AM22" s="92"/>
-      <c r="AN22" s="86"/>
-      <c r="AO22" s="86"/>
-      <c r="AP22" s="86"/>
-      <c r="AQ22" s="86"/>
-      <c r="AR22" s="86"/>
-      <c r="AS22" s="86"/>
-      <c r="AT22" s="86"/>
-      <c r="AU22" s="86"/>
-      <c r="AV22" s="86"/>
-      <c r="AW22" s="86"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="114"/>
+      <c r="AC22" s="114"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="114"/>
+      <c r="AF22" s="114"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="114"/>
+      <c r="AI22" s="114"/>
+      <c r="AJ22" s="114"/>
+      <c r="AK22" s="114"/>
+      <c r="AL22" s="114"/>
+      <c r="AM22" s="114"/>
+      <c r="AN22" s="105"/>
+      <c r="AO22" s="105"/>
+      <c r="AP22" s="105"/>
+      <c r="AQ22" s="105"/>
+      <c r="AR22" s="105"/>
+      <c r="AS22" s="105"/>
+      <c r="AT22" s="105"/>
+      <c r="AU22" s="105"/>
+      <c r="AV22" s="105"/>
+      <c r="AW22" s="105"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="92"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="92"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="92"/>
-      <c r="AN23" s="86"/>
-      <c r="AO23" s="86"/>
-      <c r="AP23" s="86"/>
-      <c r="AQ23" s="86"/>
-      <c r="AR23" s="86"/>
-      <c r="AS23" s="86"/>
-      <c r="AT23" s="86"/>
-      <c r="AU23" s="86"/>
-      <c r="AV23" s="86"/>
-      <c r="AW23" s="86"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="114"/>
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="114"/>
+      <c r="AC23" s="114"/>
+      <c r="AD23" s="114"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="114"/>
+      <c r="AJ23" s="114"/>
+      <c r="AK23" s="114"/>
+      <c r="AL23" s="114"/>
+      <c r="AM23" s="114"/>
+      <c r="AN23" s="105"/>
+      <c r="AO23" s="105"/>
+      <c r="AP23" s="105"/>
+      <c r="AQ23" s="105"/>
+      <c r="AR23" s="105"/>
+      <c r="AS23" s="105"/>
+      <c r="AT23" s="105"/>
+      <c r="AU23" s="105"/>
+      <c r="AV23" s="105"/>
+      <c r="AW23" s="105"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="92"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="92"/>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="92"/>
-      <c r="AN24" s="86"/>
-      <c r="AO24" s="86"/>
-      <c r="AP24" s="86"/>
-      <c r="AQ24" s="86"/>
-      <c r="AR24" s="86"/>
-      <c r="AS24" s="86"/>
-      <c r="AT24" s="86"/>
-      <c r="AU24" s="86"/>
-      <c r="AV24" s="86"/>
-      <c r="AW24" s="86"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="114"/>
+      <c r="Z24" s="114"/>
+      <c r="AA24" s="114"/>
+      <c r="AB24" s="114"/>
+      <c r="AC24" s="114"/>
+      <c r="AD24" s="114"/>
+      <c r="AE24" s="114"/>
+      <c r="AF24" s="114"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="114"/>
+      <c r="AI24" s="114"/>
+      <c r="AJ24" s="114"/>
+      <c r="AK24" s="114"/>
+      <c r="AL24" s="114"/>
+      <c r="AM24" s="114"/>
+      <c r="AN24" s="105"/>
+      <c r="AO24" s="105"/>
+      <c r="AP24" s="105"/>
+      <c r="AQ24" s="105"/>
+      <c r="AR24" s="105"/>
+      <c r="AS24" s="105"/>
+      <c r="AT24" s="105"/>
+      <c r="AU24" s="105"/>
+      <c r="AV24" s="105"/>
+      <c r="AW24" s="105"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="92"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="92"/>
-      <c r="AJ25" s="92"/>
-      <c r="AK25" s="92"/>
-      <c r="AL25" s="92"/>
-      <c r="AM25" s="92"/>
-      <c r="AN25" s="86"/>
-      <c r="AO25" s="86"/>
-      <c r="AP25" s="86"/>
-      <c r="AQ25" s="86"/>
-      <c r="AR25" s="86"/>
-      <c r="AS25" s="86"/>
-      <c r="AT25" s="86"/>
-      <c r="AU25" s="86"/>
-      <c r="AV25" s="86"/>
-      <c r="AW25" s="86"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="114"/>
+      <c r="W25" s="114"/>
+      <c r="X25" s="114"/>
+      <c r="Y25" s="114"/>
+      <c r="Z25" s="114"/>
+      <c r="AA25" s="114"/>
+      <c r="AB25" s="114"/>
+      <c r="AC25" s="114"/>
+      <c r="AD25" s="114"/>
+      <c r="AE25" s="114"/>
+      <c r="AF25" s="114"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="114"/>
+      <c r="AI25" s="114"/>
+      <c r="AJ25" s="114"/>
+      <c r="AK25" s="114"/>
+      <c r="AL25" s="114"/>
+      <c r="AM25" s="114"/>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="105"/>
+      <c r="AQ25" s="105"/>
+      <c r="AR25" s="105"/>
+      <c r="AS25" s="105"/>
+      <c r="AT25" s="105"/>
+      <c r="AU25" s="105"/>
+      <c r="AV25" s="105"/>
+      <c r="AW25" s="105"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="92"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="92"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="92"/>
-      <c r="AJ26" s="92"/>
-      <c r="AK26" s="92"/>
-      <c r="AL26" s="92"/>
-      <c r="AM26" s="92"/>
-      <c r="AN26" s="86"/>
-      <c r="AO26" s="86"/>
-      <c r="AP26" s="86"/>
-      <c r="AQ26" s="86"/>
-      <c r="AR26" s="86"/>
-      <c r="AS26" s="86"/>
-      <c r="AT26" s="86"/>
-      <c r="AU26" s="86"/>
-      <c r="AV26" s="86"/>
-      <c r="AW26" s="86"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="114"/>
+      <c r="AA26" s="114"/>
+      <c r="AB26" s="114"/>
+      <c r="AC26" s="114"/>
+      <c r="AD26" s="114"/>
+      <c r="AE26" s="114"/>
+      <c r="AF26" s="114"/>
+      <c r="AG26" s="114"/>
+      <c r="AH26" s="114"/>
+      <c r="AI26" s="114"/>
+      <c r="AJ26" s="114"/>
+      <c r="AK26" s="114"/>
+      <c r="AL26" s="114"/>
+      <c r="AM26" s="114"/>
+      <c r="AN26" s="105"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="105"/>
+      <c r="AQ26" s="105"/>
+      <c r="AR26" s="105"/>
+      <c r="AS26" s="105"/>
+      <c r="AT26" s="105"/>
+      <c r="AU26" s="105"/>
+      <c r="AV26" s="105"/>
+      <c r="AW26" s="105"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="92"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="92"/>
-      <c r="AJ27" s="92"/>
-      <c r="AK27" s="92"/>
-      <c r="AL27" s="92"/>
-      <c r="AM27" s="92"/>
-      <c r="AN27" s="86"/>
-      <c r="AO27" s="86"/>
-      <c r="AP27" s="86"/>
-      <c r="AQ27" s="86"/>
-      <c r="AR27" s="86"/>
-      <c r="AS27" s="86"/>
-      <c r="AT27" s="86"/>
-      <c r="AU27" s="86"/>
-      <c r="AV27" s="86"/>
-      <c r="AW27" s="86"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="114"/>
+      <c r="W27" s="114"/>
+      <c r="X27" s="114"/>
+      <c r="Y27" s="114"/>
+      <c r="Z27" s="114"/>
+      <c r="AA27" s="114"/>
+      <c r="AB27" s="114"/>
+      <c r="AC27" s="114"/>
+      <c r="AD27" s="114"/>
+      <c r="AE27" s="114"/>
+      <c r="AF27" s="114"/>
+      <c r="AG27" s="114"/>
+      <c r="AH27" s="114"/>
+      <c r="AI27" s="114"/>
+      <c r="AJ27" s="114"/>
+      <c r="AK27" s="114"/>
+      <c r="AL27" s="114"/>
+      <c r="AM27" s="114"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="105"/>
+      <c r="AQ27" s="105"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="105"/>
+      <c r="AT27" s="105"/>
+      <c r="AU27" s="105"/>
+      <c r="AV27" s="105"/>
+      <c r="AW27" s="105"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="86"/>
-      <c r="AO28" s="86"/>
-      <c r="AP28" s="86"/>
-      <c r="AQ28" s="86"/>
-      <c r="AR28" s="86"/>
-      <c r="AS28" s="86"/>
-      <c r="AT28" s="86"/>
-      <c r="AU28" s="86"/>
-      <c r="AV28" s="86"/>
-      <c r="AW28" s="86"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="114"/>
+      <c r="W28" s="114"/>
+      <c r="X28" s="114"/>
+      <c r="Y28" s="114"/>
+      <c r="Z28" s="114"/>
+      <c r="AA28" s="114"/>
+      <c r="AB28" s="114"/>
+      <c r="AC28" s="114"/>
+      <c r="AD28" s="114"/>
+      <c r="AE28" s="114"/>
+      <c r="AF28" s="114"/>
+      <c r="AG28" s="114"/>
+      <c r="AH28" s="114"/>
+      <c r="AI28" s="114"/>
+      <c r="AJ28" s="114"/>
+      <c r="AK28" s="114"/>
+      <c r="AL28" s="114"/>
+      <c r="AM28" s="114"/>
+      <c r="AN28" s="105"/>
+      <c r="AO28" s="105"/>
+      <c r="AP28" s="105"/>
+      <c r="AQ28" s="105"/>
+      <c r="AR28" s="105"/>
+      <c r="AS28" s="105"/>
+      <c r="AT28" s="105"/>
+      <c r="AU28" s="105"/>
+      <c r="AV28" s="105"/>
+      <c r="AW28" s="105"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="92"/>
-      <c r="AE29" s="92"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="92"/>
-      <c r="AJ29" s="92"/>
-      <c r="AK29" s="92"/>
-      <c r="AL29" s="92"/>
-      <c r="AM29" s="92"/>
-      <c r="AN29" s="86"/>
-      <c r="AO29" s="86"/>
-      <c r="AP29" s="86"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="86"/>
-      <c r="AS29" s="86"/>
-      <c r="AT29" s="86"/>
-      <c r="AU29" s="86"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="86"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="114"/>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="114"/>
+      <c r="AJ29" s="114"/>
+      <c r="AK29" s="114"/>
+      <c r="AL29" s="114"/>
+      <c r="AM29" s="114"/>
+      <c r="AN29" s="105"/>
+      <c r="AO29" s="105"/>
+      <c r="AP29" s="105"/>
+      <c r="AQ29" s="105"/>
+      <c r="AR29" s="105"/>
+      <c r="AS29" s="105"/>
+      <c r="AT29" s="105"/>
+      <c r="AU29" s="105"/>
+      <c r="AV29" s="105"/>
+      <c r="AW29" s="105"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="92"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="92"/>
-      <c r="AK30" s="92"/>
-      <c r="AL30" s="92"/>
-      <c r="AM30" s="92"/>
-      <c r="AN30" s="86"/>
-      <c r="AO30" s="86"/>
-      <c r="AP30" s="86"/>
-      <c r="AQ30" s="86"/>
-      <c r="AR30" s="86"/>
-      <c r="AS30" s="86"/>
-      <c r="AT30" s="86"/>
-      <c r="AU30" s="86"/>
-      <c r="AV30" s="86"/>
-      <c r="AW30" s="86"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="114"/>
+      <c r="AA30" s="114"/>
+      <c r="AB30" s="114"/>
+      <c r="AC30" s="114"/>
+      <c r="AD30" s="114"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="114"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="114"/>
+      <c r="AL30" s="114"/>
+      <c r="AM30" s="114"/>
+      <c r="AN30" s="105"/>
+      <c r="AO30" s="105"/>
+      <c r="AP30" s="105"/>
+      <c r="AQ30" s="105"/>
+      <c r="AR30" s="105"/>
+      <c r="AS30" s="105"/>
+      <c r="AT30" s="105"/>
+      <c r="AU30" s="105"/>
+      <c r="AV30" s="105"/>
+      <c r="AW30" s="105"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="92"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="92"/>
-      <c r="AJ31" s="92"/>
-      <c r="AK31" s="92"/>
-      <c r="AL31" s="92"/>
-      <c r="AM31" s="92"/>
-      <c r="AN31" s="86"/>
-      <c r="AO31" s="86"/>
-      <c r="AP31" s="86"/>
-      <c r="AQ31" s="86"/>
-      <c r="AR31" s="86"/>
-      <c r="AS31" s="86"/>
-      <c r="AT31" s="86"/>
-      <c r="AU31" s="86"/>
-      <c r="AV31" s="86"/>
-      <c r="AW31" s="86"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="114"/>
+      <c r="AI31" s="114"/>
+      <c r="AJ31" s="114"/>
+      <c r="AK31" s="114"/>
+      <c r="AL31" s="114"/>
+      <c r="AM31" s="114"/>
+      <c r="AN31" s="105"/>
+      <c r="AO31" s="105"/>
+      <c r="AP31" s="105"/>
+      <c r="AQ31" s="105"/>
+      <c r="AR31" s="105"/>
+      <c r="AS31" s="105"/>
+      <c r="AT31" s="105"/>
+      <c r="AU31" s="105"/>
+      <c r="AV31" s="105"/>
+      <c r="AW31" s="105"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="92"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="92"/>
-      <c r="AJ32" s="92"/>
-      <c r="AK32" s="92"/>
-      <c r="AL32" s="92"/>
-      <c r="AM32" s="92"/>
-      <c r="AN32" s="86"/>
-      <c r="AO32" s="86"/>
-      <c r="AP32" s="86"/>
-      <c r="AQ32" s="86"/>
-      <c r="AR32" s="86"/>
-      <c r="AS32" s="86"/>
-      <c r="AT32" s="86"/>
-      <c r="AU32" s="86"/>
-      <c r="AV32" s="86"/>
-      <c r="AW32" s="86"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="114"/>
+      <c r="Z32" s="114"/>
+      <c r="AA32" s="114"/>
+      <c r="AB32" s="114"/>
+      <c r="AC32" s="114"/>
+      <c r="AD32" s="114"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="114"/>
+      <c r="AG32" s="114"/>
+      <c r="AH32" s="114"/>
+      <c r="AI32" s="114"/>
+      <c r="AJ32" s="114"/>
+      <c r="AK32" s="114"/>
+      <c r="AL32" s="114"/>
+      <c r="AM32" s="114"/>
+      <c r="AN32" s="105"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="105"/>
+      <c r="AQ32" s="105"/>
+      <c r="AR32" s="105"/>
+      <c r="AS32" s="105"/>
+      <c r="AT32" s="105"/>
+      <c r="AU32" s="105"/>
+      <c r="AV32" s="105"/>
+      <c r="AW32" s="105"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="92"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="92"/>
-      <c r="AJ33" s="92"/>
-      <c r="AK33" s="92"/>
-      <c r="AL33" s="92"/>
-      <c r="AM33" s="92"/>
-      <c r="AN33" s="86"/>
-      <c r="AO33" s="86"/>
-      <c r="AP33" s="86"/>
-      <c r="AQ33" s="86"/>
-      <c r="AR33" s="86"/>
-      <c r="AS33" s="86"/>
-      <c r="AT33" s="86"/>
-      <c r="AU33" s="86"/>
-      <c r="AV33" s="86"/>
-      <c r="AW33" s="86"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="114"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="114"/>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="114"/>
+      <c r="AF33" s="114"/>
+      <c r="AG33" s="114"/>
+      <c r="AH33" s="114"/>
+      <c r="AI33" s="114"/>
+      <c r="AJ33" s="114"/>
+      <c r="AK33" s="114"/>
+      <c r="AL33" s="114"/>
+      <c r="AM33" s="114"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="105"/>
+      <c r="AR33" s="105"/>
+      <c r="AS33" s="105"/>
+      <c r="AT33" s="105"/>
+      <c r="AU33" s="105"/>
+      <c r="AV33" s="105"/>
+      <c r="AW33" s="105"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="92"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="92"/>
-      <c r="AD34" s="92"/>
-      <c r="AE34" s="92"/>
-      <c r="AF34" s="92"/>
-      <c r="AG34" s="92"/>
-      <c r="AH34" s="92"/>
-      <c r="AI34" s="92"/>
-      <c r="AJ34" s="92"/>
-      <c r="AK34" s="92"/>
-      <c r="AL34" s="92"/>
-      <c r="AM34" s="92"/>
-      <c r="AN34" s="86"/>
-      <c r="AO34" s="86"/>
-      <c r="AP34" s="86"/>
-      <c r="AQ34" s="86"/>
-      <c r="AR34" s="86"/>
-      <c r="AS34" s="86"/>
-      <c r="AT34" s="86"/>
-      <c r="AU34" s="86"/>
-      <c r="AV34" s="86"/>
-      <c r="AW34" s="86"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="114"/>
+      <c r="AB34" s="114"/>
+      <c r="AC34" s="114"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="114"/>
+      <c r="AF34" s="114"/>
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="114"/>
+      <c r="AI34" s="114"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
+      <c r="AL34" s="114"/>
+      <c r="AM34" s="114"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="105"/>
+      <c r="AR34" s="105"/>
+      <c r="AS34" s="105"/>
+      <c r="AT34" s="105"/>
+      <c r="AU34" s="105"/>
+      <c r="AV34" s="105"/>
+      <c r="AW34" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -5475,230 +5691,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5708,7 +5709,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BN39"/>
@@ -5779,14 +5780,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="113">
+      <c r="AO1" s="128">
         <f>変更履歴!E5</f>
         <v>43768</v>
       </c>
-      <c r="AP1" s="114"/>
-      <c r="AQ1" s="114"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="115"/>
+      <c r="AP1" s="129"/>
+      <c r="AQ1" s="129"/>
+      <c r="AR1" s="129"/>
+      <c r="AS1" s="130"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -5795,17 +5796,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="116" t="str">
+      <c r="AZ1" s="131" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="BA1" s="117"/>
-      <c r="BB1" s="117"/>
-      <c r="BC1" s="117"/>
-      <c r="BD1" s="117"/>
-      <c r="BE1" s="117"/>
-      <c r="BF1" s="117"/>
-      <c r="BG1" s="118"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="132"/>
+      <c r="BC1" s="132"/>
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="132"/>
+      <c r="BG1" s="133"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -5830,14 +5831,14 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="36" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
       <c r="V2" s="38"/>
       <c r="W2" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -5858,11 +5859,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="113"/>
-      <c r="AP2" s="114"/>
-      <c r="AQ2" s="114"/>
-      <c r="AR2" s="114"/>
-      <c r="AS2" s="115"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="129"/>
+      <c r="AS2" s="130"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -5871,14 +5872,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="116"/>
-      <c r="BA2" s="117"/>
-      <c r="BB2" s="117"/>
-      <c r="BC2" s="117"/>
-      <c r="BD2" s="117"/>
-      <c r="BE2" s="117"/>
-      <c r="BF2" s="117"/>
-      <c r="BG2" s="118"/>
+      <c r="AZ2" s="131"/>
+      <c r="BA2" s="132"/>
+      <c r="BB2" s="132"/>
+      <c r="BC2" s="132"/>
+      <c r="BD2" s="132"/>
+      <c r="BE2" s="132"/>
+      <c r="BF2" s="132"/>
+      <c r="BG2" s="133"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -5959,7 +5960,7 @@
     </row>
     <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -7042,10 +7043,10 @@
     </row>
     <row r="37" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="122"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="76" t="s">
         <v>65</v>
       </c>
@@ -7128,8 +7129,8 @@
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A38" s="28"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="124"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="125"/>
       <c r="D38" s="70"/>
       <c r="E38" s="74"/>
       <c r="F38" s="74"/>
@@ -7157,14 +7158,14 @@
       <c r="AB38" s="74"/>
       <c r="AC38" s="74"/>
       <c r="AD38" s="75"/>
-      <c r="AE38" s="119"/>
-      <c r="AF38" s="120"/>
-      <c r="AG38" s="119"/>
-      <c r="AH38" s="120"/>
-      <c r="AI38" s="119"/>
-      <c r="AJ38" s="120"/>
-      <c r="AK38" s="119"/>
-      <c r="AL38" s="120"/>
+      <c r="AE38" s="126"/>
+      <c r="AF38" s="127"/>
+      <c r="AG38" s="126"/>
+      <c r="AH38" s="127"/>
+      <c r="AI38" s="126"/>
+      <c r="AJ38" s="127"/>
+      <c r="AK38" s="126"/>
+      <c r="AL38" s="127"/>
       <c r="AM38" s="71"/>
       <c r="AN38" s="72"/>
       <c r="AO38" s="72"/>
@@ -7201,16 +7202,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ1:BG1"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK38:AL38"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="AE38:AF38"/>
     <mergeCell ref="AG38:AH38"/>
     <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ1:BG1"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK38:AL38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7334,20 +7335,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="113">
+      <c r="CD1" s="128">
         <f>変更履歴!E5</f>
         <v>43768</v>
       </c>
-      <c r="CE1" s="127"/>
-      <c r="CF1" s="127"/>
-      <c r="CG1" s="127"/>
-      <c r="CH1" s="127"/>
-      <c r="CI1" s="127"/>
-      <c r="CJ1" s="127"/>
-      <c r="CK1" s="127"/>
-      <c r="CL1" s="127"/>
-      <c r="CM1" s="127"/>
-      <c r="CN1" s="128"/>
+      <c r="CE1" s="136"/>
+      <c r="CF1" s="136"/>
+      <c r="CG1" s="136"/>
+      <c r="CH1" s="136"/>
+      <c r="CI1" s="136"/>
+      <c r="CJ1" s="136"/>
+      <c r="CK1" s="136"/>
+      <c r="CL1" s="136"/>
+      <c r="CM1" s="136"/>
+      <c r="CN1" s="137"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -7356,23 +7357,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="116" t="str">
+      <c r="CU1" s="131" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="CV1" s="125"/>
-      <c r="CW1" s="125"/>
-      <c r="CX1" s="125"/>
-      <c r="CY1" s="125"/>
-      <c r="CZ1" s="125"/>
-      <c r="DA1" s="125"/>
-      <c r="DB1" s="125"/>
-      <c r="DC1" s="125"/>
-      <c r="DD1" s="125"/>
-      <c r="DE1" s="125"/>
-      <c r="DF1" s="125"/>
-      <c r="DG1" s="125"/>
-      <c r="DH1" s="126"/>
+      <c r="CV1" s="134"/>
+      <c r="CW1" s="134"/>
+      <c r="CX1" s="134"/>
+      <c r="CY1" s="134"/>
+      <c r="CZ1" s="134"/>
+      <c r="DA1" s="134"/>
+      <c r="DB1" s="134"/>
+      <c r="DC1" s="134"/>
+      <c r="DD1" s="134"/>
+      <c r="DE1" s="134"/>
+      <c r="DF1" s="134"/>
+      <c r="DG1" s="134"/>
+      <c r="DH1" s="135"/>
     </row>
     <row r="2" spans="1:113" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -7414,7 +7415,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K00A</v>
+        <v>K-00A</v>
       </c>
       <c r="AI2" s="37"/>
       <c r="AJ2" s="37"/>
@@ -7427,39 +7428,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="130" t="str">
+      <c r="AT2" s="139" t="str">
         <f>'１．機能概要'!W2</f>
         <v>実績参照メニュー</v>
       </c>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
-      <c r="AX2" s="127"/>
-      <c r="AY2" s="127"/>
-      <c r="AZ2" s="127"/>
-      <c r="BA2" s="127"/>
-      <c r="BB2" s="127"/>
-      <c r="BC2" s="127"/>
-      <c r="BD2" s="127"/>
-      <c r="BE2" s="127"/>
-      <c r="BF2" s="127"/>
-      <c r="BG2" s="127"/>
-      <c r="BH2" s="127"/>
-      <c r="BI2" s="127"/>
-      <c r="BJ2" s="127"/>
-      <c r="BK2" s="127"/>
-      <c r="BL2" s="127"/>
-      <c r="BM2" s="127"/>
-      <c r="BN2" s="127"/>
-      <c r="BO2" s="127"/>
-      <c r="BP2" s="127"/>
-      <c r="BQ2" s="127"/>
-      <c r="BR2" s="127"/>
-      <c r="BS2" s="127"/>
-      <c r="BT2" s="127"/>
-      <c r="BU2" s="127"/>
-      <c r="BV2" s="127"/>
-      <c r="BW2" s="128"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="136"/>
+      <c r="BM2" s="136"/>
+      <c r="BN2" s="136"/>
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="136"/>
+      <c r="BQ2" s="136"/>
+      <c r="BR2" s="136"/>
+      <c r="BS2" s="136"/>
+      <c r="BT2" s="136"/>
+      <c r="BU2" s="136"/>
+      <c r="BV2" s="136"/>
+      <c r="BW2" s="137"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -7468,17 +7469,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="129"/>
-      <c r="CE2" s="125"/>
-      <c r="CF2" s="125"/>
-      <c r="CG2" s="125"/>
-      <c r="CH2" s="125"/>
-      <c r="CI2" s="125"/>
-      <c r="CJ2" s="125"/>
-      <c r="CK2" s="125"/>
-      <c r="CL2" s="125"/>
-      <c r="CM2" s="125"/>
-      <c r="CN2" s="126"/>
+      <c r="CD2" s="138"/>
+      <c r="CE2" s="134"/>
+      <c r="CF2" s="134"/>
+      <c r="CG2" s="134"/>
+      <c r="CH2" s="134"/>
+      <c r="CI2" s="134"/>
+      <c r="CJ2" s="134"/>
+      <c r="CK2" s="134"/>
+      <c r="CL2" s="134"/>
+      <c r="CM2" s="134"/>
+      <c r="CN2" s="135"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -7487,20 +7488,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="116"/>
-      <c r="CV2" s="125"/>
-      <c r="CW2" s="125"/>
-      <c r="CX2" s="125"/>
-      <c r="CY2" s="125"/>
-      <c r="CZ2" s="125"/>
-      <c r="DA2" s="125"/>
-      <c r="DB2" s="125"/>
-      <c r="DC2" s="125"/>
-      <c r="DD2" s="125"/>
-      <c r="DE2" s="125"/>
-      <c r="DF2" s="125"/>
-      <c r="DG2" s="125"/>
-      <c r="DH2" s="126"/>
+      <c r="CU2" s="131"/>
+      <c r="CV2" s="134"/>
+      <c r="CW2" s="134"/>
+      <c r="CX2" s="134"/>
+      <c r="CY2" s="134"/>
+      <c r="CZ2" s="134"/>
+      <c r="DA2" s="134"/>
+      <c r="DB2" s="134"/>
+      <c r="DC2" s="134"/>
+      <c r="DD2" s="134"/>
+      <c r="DE2" s="134"/>
+      <c r="DF2" s="134"/>
+      <c r="DG2" s="134"/>
+      <c r="DH2" s="135"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="48"/>
@@ -7661,7 +7662,7 @@
       </c>
       <c r="F2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K00A</v>
+        <v>K-00A</v>
       </c>
       <c r="G2" s="36" t="str">
         <f>'１．機能概要'!W2</f>
@@ -7701,37 +7702,37 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="131" t="s">
+      <c r="I6" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="131" t="s">
+      <c r="J6" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="105" t="s">
+      <c r="L6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="105" t="s">
+      <c r="M6" s="97" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="63" t="s">
@@ -7739,22 +7740,22 @@
       </c>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
-      <c r="Q6" s="131" t="s">
+      <c r="Q6" s="140" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="80" t="s">
         <v>51</v>
       </c>
@@ -7764,7 +7765,7 @@
       <c r="P7" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="131"/>
+      <c r="Q7" s="140"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
@@ -7822,37 +7823,37 @@
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="131" t="s">
+      <c r="I10" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="131" t="s">
+      <c r="J10" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="105" t="s">
+      <c r="K10" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="105" t="s">
+      <c r="L10" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="105" t="s">
+      <c r="M10" s="97" t="s">
         <v>32</v>
       </c>
       <c r="N10" s="63" t="s">
@@ -7860,24 +7861,24 @@
       </c>
       <c r="O10" s="63"/>
       <c r="P10" s="63"/>
-      <c r="Q10" s="131" t="s">
+      <c r="Q10" s="140" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
       <c r="N11" s="42" t="s">
         <v>51</v>
       </c>
@@ -7887,7 +7888,7 @@
       <c r="P11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="131"/>
+      <c r="Q11" s="140"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
@@ -7899,10 +7900,10 @@
         <v>83</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>37</v>
@@ -7935,7 +7936,7 @@
         <v>33</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -7948,10 +7949,10 @@
         <v>84</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>37</v>
@@ -7984,7 +7985,7 @@
         <v>33</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -7997,10 +7998,10 @@
         <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>37</v>
@@ -8033,7 +8034,7 @@
         <v>33</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -8046,10 +8047,10 @@
         <v>86</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>37</v>
@@ -8082,7 +8083,7 @@
         <v>33</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -8095,10 +8096,10 @@
         <v>87</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>37</v>
@@ -8131,7 +8132,7 @@
         <v>33</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -8144,10 +8145,10 @@
         <v>88</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>37</v>
@@ -8180,7 +8181,7 @@
         <v>33</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -8193,10 +8194,10 @@
         <v>89</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>37</v>
@@ -8229,7 +8230,7 @@
         <v>33</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -8242,10 +8243,10 @@
         <v>90</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>37</v>
@@ -8278,7 +8279,7 @@
         <v>33</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -8312,6 +8313,23 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="J10:J11"/>
@@ -8319,23 +8337,6 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8348,7 +8349,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ173"/>
@@ -8409,14 +8410,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="113">
+      <c r="AI1" s="128">
         <f>変更履歴!E5</f>
         <v>43768</v>
       </c>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="127"/>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="128"/>
+      <c r="AJ1" s="136"/>
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="137"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -8425,16 +8426,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="116" t="str">
+      <c r="AT1" s="131" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="125"/>
-      <c r="AY1" s="125"/>
-      <c r="AZ1" s="126"/>
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
+      <c r="AX1" s="134"/>
+      <c r="AY1" s="134"/>
+      <c r="AZ1" s="135"/>
     </row>
     <row r="2" spans="1:52" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8456,38 +8457,38 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K00A</v>
+        <v>K-00A</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="130" t="str">
+      <c r="S2" s="139" t="str">
         <f>'１．機能概要'!W2</f>
         <v>実績参照メニュー</v>
       </c>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="128"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="137"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="126"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="135"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8496,13 +8497,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="126"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="134"/>
+      <c r="AV2" s="134"/>
+      <c r="AW2" s="134"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="134"/>
+      <c r="AZ2" s="135"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -8955,20 +8956,20 @@
         <v>3</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
       <c r="G14" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="22"/>
       <c r="L14" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
@@ -9112,20 +9113,20 @@
         <v>4</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
       <c r="G17" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="22"/>
       <c r="L17" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -9269,20 +9270,20 @@
         <v>5</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
       <c r="G20" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
       <c r="L20" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -9425,21 +9426,21 @@
       <c r="B23" s="20">
         <v>6</v>
       </c>
-      <c r="C23" s="132" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134"/>
+      <c r="C23" s="141" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143"/>
       <c r="G23" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="22"/>
       <c r="L23" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
@@ -9480,10 +9481,10 @@
     </row>
     <row r="24" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B24" s="65"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="137"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
       <c r="G24" s="65" t="s">
         <v>63</v>
       </c>
@@ -9531,10 +9532,10 @@
     </row>
     <row r="25" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B25" s="24"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="149"/>
       <c r="G25" s="65"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -9583,20 +9584,20 @@
         <v>7</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
       <c r="G26" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
       <c r="L26" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
@@ -9739,21 +9740,21 @@
       <c r="B29" s="20">
         <v>8</v>
       </c>
-      <c r="C29" s="149" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
+      <c r="C29" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="84"/>
       <c r="G29" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
       <c r="L29" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
@@ -9794,10 +9795,10 @@
     </row>
     <row r="30" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B30" s="65"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="145"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="65" t="s">
         <v>63</v>
       </c>
@@ -9845,10 +9846,10 @@
     </row>
     <row r="31" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="24"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
       <c r="G31" s="65"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -9897,20 +9898,20 @@
         <v>9</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
       <c r="G32" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="22"/>
       <c r="L32" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
@@ -10053,21 +10054,21 @@
       <c r="B35" s="20">
         <v>10</v>
       </c>
-      <c r="C35" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="134"/>
+      <c r="C35" s="141" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="143"/>
       <c r="G35" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="22"/>
       <c r="L35" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
@@ -10108,10 +10109,10 @@
     </row>
     <row r="36" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B36" s="65"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="137"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="146"/>
       <c r="G36" s="65" t="s">
         <v>63</v>
       </c>
@@ -10159,10 +10160,10 @@
     </row>
     <row r="37" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B37" s="24"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="140"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="149"/>
       <c r="G37" s="65"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -17412,7 +17413,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ100"/>
@@ -17473,14 +17474,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="113">
+      <c r="AI1" s="128">
         <f>変更履歴!E5</f>
         <v>43768</v>
       </c>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="127"/>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="128"/>
+      <c r="AJ1" s="136"/>
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="137"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -17489,16 +17490,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="116" t="str">
+      <c r="AT1" s="131" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="125"/>
-      <c r="AY1" s="125"/>
-      <c r="AZ1" s="126"/>
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
+      <c r="AX1" s="134"/>
+      <c r="AY1" s="134"/>
+      <c r="AZ1" s="135"/>
     </row>
     <row r="2" spans="1:52" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -17520,38 +17521,38 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K00A</v>
+        <v>K-00A</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="130" t="str">
+      <c r="S2" s="139" t="str">
         <f>'１．機能概要'!W2</f>
         <v>実績参照メニュー</v>
       </c>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="128"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="137"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="126"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="135"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -17560,13 +17561,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="126"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="134"/>
+      <c r="AV2" s="134"/>
+      <c r="AW2" s="134"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="134"/>
+      <c r="AZ2" s="135"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -18006,7 +18007,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -18110,7 +18111,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -18214,7 +18215,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -18318,7 +18319,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -18422,7 +18423,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -18526,7 +18527,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -18630,7 +18631,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -18734,7 +18735,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -22848,7 +22849,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ206"/>
@@ -22909,14 +22910,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="113">
+      <c r="AI1" s="128">
         <f>変更履歴!E5</f>
         <v>43768</v>
       </c>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="127"/>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="128"/>
+      <c r="AJ1" s="136"/>
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="137"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -22925,16 +22926,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="116" t="str">
+      <c r="AT1" s="131" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="125"/>
-      <c r="AY1" s="125"/>
-      <c r="AZ1" s="126"/>
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
+      <c r="AX1" s="134"/>
+      <c r="AY1" s="134"/>
+      <c r="AZ1" s="135"/>
     </row>
     <row r="2" spans="1:52" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -22956,38 +22957,38 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K00A</v>
+        <v>K-00A</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="130" t="str">
+      <c r="S2" s="139" t="str">
         <f>'１．機能概要'!W2</f>
         <v>実績参照メニュー</v>
       </c>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="128"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="137"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="126"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="135"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -22996,13 +22997,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="126"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="134"/>
+      <c r="AV2" s="134"/>
+      <c r="AW2" s="134"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="134"/>
+      <c r="AZ2" s="135"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -34042,18 +34043,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34215,18 +34216,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01_基本設計書/20200220リリース/SC-K00A_実績参照メニュー.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K00A_実績参照メニュー.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\メニュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBF801E6-5BB1-45E2-BE8A-406FF068F829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA8637B-FB1F-45C1-90FD-CDFB9EAE7E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="420" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="137">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -717,12 +717,6 @@
     <t>MENU-006</t>
   </si>
   <si>
-    <t>MENU-007</t>
-  </si>
-  <si>
-    <t>MENU-008</t>
-  </si>
-  <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
@@ -805,14 +799,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Other issues</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Other issues refer ・ cancel</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>当日実績参照(K-13)</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -882,14 +868,6 @@
   </si>
   <si>
     <t>実績管理(K-19)</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>その他出庫(K-20)</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>その他出庫参照・取消(K-21)</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -1075,54 +1053,6 @@
   </si>
   <si>
     <t>その他出庫</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その他出庫画面を開く。</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その他出庫参照・取消</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュッコ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トリケシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その他出庫参照・取消画面を開く。</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュッコ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トリケシ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒラ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1313,15 +1243,7 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>その他出庫画面を開く</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その他出庫参照・取消画面を開く</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>K-00A</t>
+    <t>K00A</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2743,16 +2665,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>84213</xdr:colOff>
+      <xdr:colOff>74689</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>170754</xdr:rowOff>
+      <xdr:rowOff>161230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2789C497-2FCD-4A8F-B25E-395395228459}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C23CF2-43F7-4DE9-9506-E28D3E493892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2769,7 +2691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="12095238" cy="5571429"/>
+          <a:ext cx="12085714" cy="5561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3466,7 +3388,7 @@
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="92" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="92"/>
       <c r="C32" s="92"/>
@@ -5831,14 +5753,14 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="36" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
       <c r="V2" s="38"/>
       <c r="W2" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -5960,7 +5882,7 @@
     </row>
     <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -7415,7 +7337,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>K-00A</v>
+        <v>K00A</v>
       </c>
       <c r="AI2" s="37"/>
       <c r="AJ2" s="37"/>
@@ -7581,7 +7503,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -7662,7 +7584,7 @@
       </c>
       <c r="F2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>K-00A</v>
+        <v>K00A</v>
       </c>
       <c r="G2" s="36" t="str">
         <f>'１．機能概要'!W2</f>
@@ -7900,10 +7822,10 @@
         <v>83</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>37</v>
@@ -7936,7 +7858,7 @@
         <v>33</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -7949,10 +7871,10 @@
         <v>84</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>37</v>
@@ -7985,7 +7907,7 @@
         <v>33</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -7998,10 +7920,10 @@
         <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>37</v>
@@ -8034,7 +7956,7 @@
         <v>33</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -8047,10 +7969,10 @@
         <v>86</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>37</v>
@@ -8083,7 +8005,7 @@
         <v>33</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -8096,10 +8018,10 @@
         <v>87</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>37</v>
@@ -8132,7 +8054,7 @@
         <v>33</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -8145,10 +8067,10 @@
         <v>88</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>37</v>
@@ -8181,135 +8103,37 @@
         <v>33</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="7">
-        <v>7</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="56"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="56"/>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="56"/>
+    <row r="22" spans="1:17" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="57"/>
       <c r="C22" s="69"/>
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="56"/>
-    </row>
-    <row r="24" spans="1:17" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="57"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="M24" s="45"/>
-      <c r="Q24" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="Q22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -8352,7 +8176,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ173"/>
+  <dimension ref="A1:AZ167"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -8457,7 +8281,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>K-00A</v>
+        <v>K00A</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -8837,20 +8661,20 @@
         <v>2</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
       <c r="G11" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="22"/>
       <c r="L11" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -8898,7 +8722,7 @@
       </c>
       <c r="K12" s="66"/>
       <c r="L12" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AV12" s="66"/>
     </row>
@@ -8956,20 +8780,20 @@
         <v>3</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
       <c r="G14" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="22"/>
       <c r="L14" s="21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
@@ -9113,20 +8937,20 @@
         <v>4</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
       <c r="G17" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="22"/>
       <c r="L17" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -9270,20 +9094,20 @@
         <v>5</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
       <c r="G20" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
       <c r="L20" s="21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -9427,20 +9251,20 @@
         <v>6</v>
       </c>
       <c r="C23" s="141" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D23" s="142"/>
       <c r="E23" s="142"/>
       <c r="F23" s="143"/>
       <c r="G23" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="22"/>
       <c r="L23" s="21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
@@ -9584,20 +9408,20 @@
         <v>7</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
       <c r="G26" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
       <c r="L26" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
@@ -9741,20 +9565,20 @@
         <v>8</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D29" s="83"/>
       <c r="E29" s="83"/>
       <c r="F29" s="84"/>
       <c r="G29" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
       <c r="L29" s="21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
@@ -9893,323 +9717,333 @@
       <c r="AU31" s="23"/>
       <c r="AV31" s="66"/>
     </row>
-    <row r="32" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="20">
-        <v>9</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="21"/>
-      <c r="AM32" s="21"/>
-      <c r="AN32" s="21"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="21"/>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="22"/>
-    </row>
-    <row r="33" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
-      <c r="AF33" s="23"/>
-      <c r="AG33" s="23"/>
-      <c r="AH33" s="23"/>
-      <c r="AI33" s="23"/>
-      <c r="AJ33" s="23"/>
-      <c r="AK33" s="23"/>
-      <c r="AL33" s="23"/>
-      <c r="AM33" s="23"/>
-      <c r="AN33" s="23"/>
-      <c r="AO33" s="23"/>
-      <c r="AP33" s="23"/>
-      <c r="AQ33" s="23"/>
-      <c r="AR33" s="23"/>
-      <c r="AS33" s="23"/>
-      <c r="AT33" s="23"/>
-      <c r="AU33" s="23"/>
-      <c r="AV33" s="66"/>
-    </row>
-    <row r="34" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="24"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23"/>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23"/>
-      <c r="AQ34" s="23"/>
-      <c r="AR34" s="23"/>
-      <c r="AS34" s="23"/>
-      <c r="AT34" s="23"/>
-      <c r="AU34" s="23"/>
-      <c r="AV34" s="66"/>
-    </row>
-    <row r="35" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="20">
-        <v>10</v>
-      </c>
-      <c r="C35" s="141" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" s="21"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
-      <c r="AK35" s="21"/>
-      <c r="AL35" s="21"/>
-      <c r="AM35" s="21"/>
-      <c r="AN35" s="21"/>
-      <c r="AO35" s="21"/>
-      <c r="AP35" s="21"/>
-      <c r="AQ35" s="21"/>
-      <c r="AR35" s="21"/>
-      <c r="AS35" s="21"/>
-      <c r="AT35" s="21"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="22"/>
-    </row>
-    <row r="36" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="65"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="23"/>
-      <c r="AK36" s="23"/>
-      <c r="AL36" s="23"/>
-      <c r="AM36" s="23"/>
-      <c r="AN36" s="23"/>
-      <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="23"/>
-      <c r="AS36" s="23"/>
-      <c r="AT36" s="23"/>
-      <c r="AU36" s="23"/>
-      <c r="AV36" s="66"/>
-    </row>
-    <row r="37" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B37" s="24"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="23"/>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="23"/>
-      <c r="AK37" s="23"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="23"/>
-      <c r="AO37" s="23"/>
-      <c r="AP37" s="23"/>
-      <c r="AQ37" s="23"/>
-      <c r="AR37" s="23"/>
-      <c r="AS37" s="23"/>
-      <c r="AT37" s="23"/>
-      <c r="AU37" s="23"/>
-      <c r="AV37" s="66"/>
-    </row>
-    <row r="38" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="49"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="49"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="49"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
+      <c r="AM37" s="49"/>
+      <c r="AN37" s="49"/>
+      <c r="AO37" s="49"/>
+      <c r="AP37" s="49"/>
+      <c r="AQ37" s="49"/>
+      <c r="AR37" s="49"/>
+      <c r="AS37" s="49"/>
+      <c r="AT37" s="49"/>
+      <c r="AU37" s="49"/>
+      <c r="AV37" s="49"/>
+      <c r="AW37" s="49"/>
+      <c r="AX37" s="49"/>
+      <c r="AY37" s="49"/>
+      <c r="AZ37" s="49"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="49"/>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="49"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="49"/>
+      <c r="AI38" s="49"/>
+      <c r="AJ38" s="49"/>
+      <c r="AK38" s="49"/>
+      <c r="AL38" s="49"/>
+      <c r="AM38" s="49"/>
+      <c r="AN38" s="49"/>
+      <c r="AO38" s="49"/>
+      <c r="AP38" s="49"/>
+      <c r="AQ38" s="49"/>
+      <c r="AR38" s="49"/>
+      <c r="AS38" s="49"/>
+      <c r="AT38" s="49"/>
+      <c r="AU38" s="49"/>
+      <c r="AV38" s="49"/>
+      <c r="AW38" s="49"/>
+      <c r="AX38" s="49"/>
+      <c r="AY38" s="49"/>
+      <c r="AZ38" s="49"/>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="49"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="49"/>
+      <c r="AL39" s="49"/>
+      <c r="AM39" s="49"/>
+      <c r="AN39" s="49"/>
+      <c r="AO39" s="49"/>
+      <c r="AP39" s="49"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="49"/>
+      <c r="AS39" s="49"/>
+      <c r="AT39" s="49"/>
+      <c r="AU39" s="49"/>
+      <c r="AV39" s="49"/>
+      <c r="AW39" s="49"/>
+      <c r="AX39" s="49"/>
+      <c r="AY39" s="49"/>
+      <c r="AZ39" s="49"/>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="49"/>
+      <c r="AD40" s="49"/>
+      <c r="AE40" s="49"/>
+      <c r="AF40" s="49"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="49"/>
+      <c r="AI40" s="49"/>
+      <c r="AJ40" s="49"/>
+      <c r="AK40" s="49"/>
+      <c r="AL40" s="49"/>
+      <c r="AM40" s="49"/>
+      <c r="AN40" s="49"/>
+      <c r="AO40" s="49"/>
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="49"/>
+      <c r="AS40" s="49"/>
+      <c r="AT40" s="49"/>
+      <c r="AU40" s="49"/>
+      <c r="AV40" s="49"/>
+      <c r="AW40" s="49"/>
+      <c r="AX40" s="49"/>
+      <c r="AY40" s="49"/>
+      <c r="AZ40" s="49"/>
+    </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A41" s="49"/>
       <c r="B41" s="49"/>
@@ -17068,339 +16902,14 @@
       <c r="AY167" s="49"/>
       <c r="AZ167" s="49"/>
     </row>
-    <row r="168" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A168" s="49"/>
-      <c r="B168" s="49"/>
-      <c r="C168" s="49"/>
-      <c r="D168" s="49"/>
-      <c r="E168" s="49"/>
-      <c r="F168" s="49"/>
-      <c r="G168" s="49"/>
-      <c r="H168" s="49"/>
-      <c r="I168" s="49"/>
-      <c r="J168" s="49"/>
-      <c r="K168" s="49"/>
-      <c r="L168" s="49"/>
-      <c r="M168" s="49"/>
-      <c r="N168" s="49"/>
-      <c r="O168" s="49"/>
-      <c r="P168" s="49"/>
-      <c r="Q168" s="49"/>
-      <c r="R168" s="49"/>
-      <c r="S168" s="49"/>
-      <c r="T168" s="49"/>
-      <c r="U168" s="49"/>
-      <c r="V168" s="49"/>
-      <c r="W168" s="49"/>
-      <c r="X168" s="49"/>
-      <c r="Y168" s="49"/>
-      <c r="Z168" s="49"/>
-      <c r="AA168" s="49"/>
-      <c r="AB168" s="49"/>
-      <c r="AC168" s="49"/>
-      <c r="AD168" s="49"/>
-      <c r="AE168" s="49"/>
-      <c r="AF168" s="49"/>
-      <c r="AG168" s="49"/>
-      <c r="AH168" s="49"/>
-      <c r="AI168" s="49"/>
-      <c r="AJ168" s="49"/>
-      <c r="AK168" s="49"/>
-      <c r="AL168" s="49"/>
-      <c r="AM168" s="49"/>
-      <c r="AN168" s="49"/>
-      <c r="AO168" s="49"/>
-      <c r="AP168" s="49"/>
-      <c r="AQ168" s="49"/>
-      <c r="AR168" s="49"/>
-      <c r="AS168" s="49"/>
-      <c r="AT168" s="49"/>
-      <c r="AU168" s="49"/>
-      <c r="AV168" s="49"/>
-      <c r="AW168" s="49"/>
-      <c r="AX168" s="49"/>
-      <c r="AY168" s="49"/>
-      <c r="AZ168" s="49"/>
-    </row>
-    <row r="169" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A169" s="49"/>
-      <c r="B169" s="49"/>
-      <c r="C169" s="49"/>
-      <c r="D169" s="49"/>
-      <c r="E169" s="49"/>
-      <c r="F169" s="49"/>
-      <c r="G169" s="49"/>
-      <c r="H169" s="49"/>
-      <c r="I169" s="49"/>
-      <c r="J169" s="49"/>
-      <c r="K169" s="49"/>
-      <c r="L169" s="49"/>
-      <c r="M169" s="49"/>
-      <c r="N169" s="49"/>
-      <c r="O169" s="49"/>
-      <c r="P169" s="49"/>
-      <c r="Q169" s="49"/>
-      <c r="R169" s="49"/>
-      <c r="S169" s="49"/>
-      <c r="T169" s="49"/>
-      <c r="U169" s="49"/>
-      <c r="V169" s="49"/>
-      <c r="W169" s="49"/>
-      <c r="X169" s="49"/>
-      <c r="Y169" s="49"/>
-      <c r="Z169" s="49"/>
-      <c r="AA169" s="49"/>
-      <c r="AB169" s="49"/>
-      <c r="AC169" s="49"/>
-      <c r="AD169" s="49"/>
-      <c r="AE169" s="49"/>
-      <c r="AF169" s="49"/>
-      <c r="AG169" s="49"/>
-      <c r="AH169" s="49"/>
-      <c r="AI169" s="49"/>
-      <c r="AJ169" s="49"/>
-      <c r="AK169" s="49"/>
-      <c r="AL169" s="49"/>
-      <c r="AM169" s="49"/>
-      <c r="AN169" s="49"/>
-      <c r="AO169" s="49"/>
-      <c r="AP169" s="49"/>
-      <c r="AQ169" s="49"/>
-      <c r="AR169" s="49"/>
-      <c r="AS169" s="49"/>
-      <c r="AT169" s="49"/>
-      <c r="AU169" s="49"/>
-      <c r="AV169" s="49"/>
-      <c r="AW169" s="49"/>
-      <c r="AX169" s="49"/>
-      <c r="AY169" s="49"/>
-      <c r="AZ169" s="49"/>
-    </row>
-    <row r="170" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A170" s="49"/>
-      <c r="B170" s="49"/>
-      <c r="C170" s="49"/>
-      <c r="D170" s="49"/>
-      <c r="E170" s="49"/>
-      <c r="F170" s="49"/>
-      <c r="G170" s="49"/>
-      <c r="H170" s="49"/>
-      <c r="I170" s="49"/>
-      <c r="J170" s="49"/>
-      <c r="K170" s="49"/>
-      <c r="L170" s="49"/>
-      <c r="M170" s="49"/>
-      <c r="N170" s="49"/>
-      <c r="O170" s="49"/>
-      <c r="P170" s="49"/>
-      <c r="Q170" s="49"/>
-      <c r="R170" s="49"/>
-      <c r="S170" s="49"/>
-      <c r="T170" s="49"/>
-      <c r="U170" s="49"/>
-      <c r="V170" s="49"/>
-      <c r="W170" s="49"/>
-      <c r="X170" s="49"/>
-      <c r="Y170" s="49"/>
-      <c r="Z170" s="49"/>
-      <c r="AA170" s="49"/>
-      <c r="AB170" s="49"/>
-      <c r="AC170" s="49"/>
-      <c r="AD170" s="49"/>
-      <c r="AE170" s="49"/>
-      <c r="AF170" s="49"/>
-      <c r="AG170" s="49"/>
-      <c r="AH170" s="49"/>
-      <c r="AI170" s="49"/>
-      <c r="AJ170" s="49"/>
-      <c r="AK170" s="49"/>
-      <c r="AL170" s="49"/>
-      <c r="AM170" s="49"/>
-      <c r="AN170" s="49"/>
-      <c r="AO170" s="49"/>
-      <c r="AP170" s="49"/>
-      <c r="AQ170" s="49"/>
-      <c r="AR170" s="49"/>
-      <c r="AS170" s="49"/>
-      <c r="AT170" s="49"/>
-      <c r="AU170" s="49"/>
-      <c r="AV170" s="49"/>
-      <c r="AW170" s="49"/>
-      <c r="AX170" s="49"/>
-      <c r="AY170" s="49"/>
-      <c r="AZ170" s="49"/>
-    </row>
-    <row r="171" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A171" s="49"/>
-      <c r="B171" s="49"/>
-      <c r="C171" s="49"/>
-      <c r="D171" s="49"/>
-      <c r="E171" s="49"/>
-      <c r="F171" s="49"/>
-      <c r="G171" s="49"/>
-      <c r="H171" s="49"/>
-      <c r="I171" s="49"/>
-      <c r="J171" s="49"/>
-      <c r="K171" s="49"/>
-      <c r="L171" s="49"/>
-      <c r="M171" s="49"/>
-      <c r="N171" s="49"/>
-      <c r="O171" s="49"/>
-      <c r="P171" s="49"/>
-      <c r="Q171" s="49"/>
-      <c r="R171" s="49"/>
-      <c r="S171" s="49"/>
-      <c r="T171" s="49"/>
-      <c r="U171" s="49"/>
-      <c r="V171" s="49"/>
-      <c r="W171" s="49"/>
-      <c r="X171" s="49"/>
-      <c r="Y171" s="49"/>
-      <c r="Z171" s="49"/>
-      <c r="AA171" s="49"/>
-      <c r="AB171" s="49"/>
-      <c r="AC171" s="49"/>
-      <c r="AD171" s="49"/>
-      <c r="AE171" s="49"/>
-      <c r="AF171" s="49"/>
-      <c r="AG171" s="49"/>
-      <c r="AH171" s="49"/>
-      <c r="AI171" s="49"/>
-      <c r="AJ171" s="49"/>
-      <c r="AK171" s="49"/>
-      <c r="AL171" s="49"/>
-      <c r="AM171" s="49"/>
-      <c r="AN171" s="49"/>
-      <c r="AO171" s="49"/>
-      <c r="AP171" s="49"/>
-      <c r="AQ171" s="49"/>
-      <c r="AR171" s="49"/>
-      <c r="AS171" s="49"/>
-      <c r="AT171" s="49"/>
-      <c r="AU171" s="49"/>
-      <c r="AV171" s="49"/>
-      <c r="AW171" s="49"/>
-      <c r="AX171" s="49"/>
-      <c r="AY171" s="49"/>
-      <c r="AZ171" s="49"/>
-    </row>
-    <row r="172" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A172" s="49"/>
-      <c r="B172" s="49"/>
-      <c r="C172" s="49"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
-      <c r="F172" s="49"/>
-      <c r="G172" s="49"/>
-      <c r="H172" s="49"/>
-      <c r="I172" s="49"/>
-      <c r="J172" s="49"/>
-      <c r="K172" s="49"/>
-      <c r="L172" s="49"/>
-      <c r="M172" s="49"/>
-      <c r="N172" s="49"/>
-      <c r="O172" s="49"/>
-      <c r="P172" s="49"/>
-      <c r="Q172" s="49"/>
-      <c r="R172" s="49"/>
-      <c r="S172" s="49"/>
-      <c r="T172" s="49"/>
-      <c r="U172" s="49"/>
-      <c r="V172" s="49"/>
-      <c r="W172" s="49"/>
-      <c r="X172" s="49"/>
-      <c r="Y172" s="49"/>
-      <c r="Z172" s="49"/>
-      <c r="AA172" s="49"/>
-      <c r="AB172" s="49"/>
-      <c r="AC172" s="49"/>
-      <c r="AD172" s="49"/>
-      <c r="AE172" s="49"/>
-      <c r="AF172" s="49"/>
-      <c r="AG172" s="49"/>
-      <c r="AH172" s="49"/>
-      <c r="AI172" s="49"/>
-      <c r="AJ172" s="49"/>
-      <c r="AK172" s="49"/>
-      <c r="AL172" s="49"/>
-      <c r="AM172" s="49"/>
-      <c r="AN172" s="49"/>
-      <c r="AO172" s="49"/>
-      <c r="AP172" s="49"/>
-      <c r="AQ172" s="49"/>
-      <c r="AR172" s="49"/>
-      <c r="AS172" s="49"/>
-      <c r="AT172" s="49"/>
-      <c r="AU172" s="49"/>
-      <c r="AV172" s="49"/>
-      <c r="AW172" s="49"/>
-      <c r="AX172" s="49"/>
-      <c r="AY172" s="49"/>
-      <c r="AZ172" s="49"/>
-    </row>
-    <row r="173" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A173" s="49"/>
-      <c r="B173" s="49"/>
-      <c r="C173" s="49"/>
-      <c r="D173" s="49"/>
-      <c r="E173" s="49"/>
-      <c r="F173" s="49"/>
-      <c r="G173" s="49"/>
-      <c r="H173" s="49"/>
-      <c r="I173" s="49"/>
-      <c r="J173" s="49"/>
-      <c r="K173" s="49"/>
-      <c r="L173" s="49"/>
-      <c r="M173" s="49"/>
-      <c r="N173" s="49"/>
-      <c r="O173" s="49"/>
-      <c r="P173" s="49"/>
-      <c r="Q173" s="49"/>
-      <c r="R173" s="49"/>
-      <c r="S173" s="49"/>
-      <c r="T173" s="49"/>
-      <c r="U173" s="49"/>
-      <c r="V173" s="49"/>
-      <c r="W173" s="49"/>
-      <c r="X173" s="49"/>
-      <c r="Y173" s="49"/>
-      <c r="Z173" s="49"/>
-      <c r="AA173" s="49"/>
-      <c r="AB173" s="49"/>
-      <c r="AC173" s="49"/>
-      <c r="AD173" s="49"/>
-      <c r="AE173" s="49"/>
-      <c r="AF173" s="49"/>
-      <c r="AG173" s="49"/>
-      <c r="AH173" s="49"/>
-      <c r="AI173" s="49"/>
-      <c r="AJ173" s="49"/>
-      <c r="AK173" s="49"/>
-      <c r="AL173" s="49"/>
-      <c r="AM173" s="49"/>
-      <c r="AN173" s="49"/>
-      <c r="AO173" s="49"/>
-      <c r="AP173" s="49"/>
-      <c r="AQ173" s="49"/>
-      <c r="AR173" s="49"/>
-      <c r="AS173" s="49"/>
-      <c r="AT173" s="49"/>
-      <c r="AU173" s="49"/>
-      <c r="AV173" s="49"/>
-      <c r="AW173" s="49"/>
-      <c r="AX173" s="49"/>
-      <c r="AY173" s="49"/>
-      <c r="AZ173" s="49"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C35:F37"/>
+  <mergeCells count="6">
+    <mergeCell ref="C23:F25"/>
     <mergeCell ref="AI1:AM1"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
     <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="C23:F25"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -17521,7 +17030,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>K-00A</v>
+        <v>K00A</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -17904,7 +17413,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -17915,7 +17424,7 @@
       <c r="J9" s="65"/>
       <c r="P9" s="66"/>
       <c r="Q9" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
@@ -17930,7 +17439,7 @@
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
@@ -18007,7 +17516,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -18111,7 +17620,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -18215,7 +17724,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -18319,7 +17828,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -18423,7 +17932,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -18527,7 +18036,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -18631,7 +18140,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -18735,7 +18244,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -22957,7 +22466,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>K-00A</v>
+        <v>K00A</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -34043,21 +33552,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -34215,24 +33709,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34248,4 +33740,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K00A_実績参照メニュー.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K00A_実績参照メニュー.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EAA147-D392-411F-B444-8574B86B6F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B57D1F-67BD-4D5F-A7AF-84210C6E7F9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -122,21 +122,11 @@
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="2"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="134">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -779,10 +769,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>The results before the previous days</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Molding achievement reference</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -801,22 +787,6 @@
   <si>
     <t>当日実績参照(K-13)</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>前日以前実績参照(K-14)</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンジツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>成形実績参照(K-16)</t>
@@ -903,32 +873,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>前日以前実績参照</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンジツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>前日以前実績参照画面を開く。</t>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>成形実績参照</t>
     <rPh sb="0" eb="2">
       <t>セイケイ</t>
@@ -1065,22 +1009,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>前日以前実績参照</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンジツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>成形実績参照</t>
     <rPh sb="0" eb="2">
       <t>セイケイ</t>
@@ -1143,25 +1071,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>前日以前実績参照画面を開く</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンジツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>成形実績参照画面を開く</t>
     <rPh sb="0" eb="2">
       <t>セイケイ</t>
@@ -1245,9 +1154,6 @@
       <t>ショウカイ</t>
     </rPh>
     <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>MENU-007</t>
   </si>
   <si>
     <t>期間別実績照会</t>
@@ -1998,6 +1904,53 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2028,52 +1981,29 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2086,30 +2016,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2728,6 +2634,66 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB3DA68-CB5B-4C95-B8F2-144050D3150C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="2924175"/>
+          <a:ext cx="2733675" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3639,1770 +3605,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50"/>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="50"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="91"/>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="108"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
+      <c r="AW2" s="108"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="50"/>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="94" t="s">
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="94" t="s">
+      <c r="K3" s="112"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="92" t="s">
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92" t="s">
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="92"/>
-      <c r="AK3" s="92"/>
-      <c r="AL3" s="92"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92" t="s">
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="92"/>
-      <c r="AS3" s="92" t="s">
+      <c r="AO3" s="109"/>
+      <c r="AP3" s="109"/>
+      <c r="AQ3" s="109"/>
+      <c r="AR3" s="109"/>
+      <c r="AS3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="92"/>
-      <c r="AU3" s="92"/>
-      <c r="AV3" s="92"/>
-      <c r="AW3" s="92"/>
+      <c r="AT3" s="109"/>
+      <c r="AU3" s="109"/>
+      <c r="AV3" s="109"/>
+      <c r="AW3" s="109"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
-      <c r="B5" s="101">
+      <c r="B5" s="91">
         <v>1</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="106">
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="105">
         <v>43768</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="103" t="s">
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103" t="s">
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="100" t="s">
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="105" t="s">
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="105"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="100" t="s">
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="102"/>
+      <c r="AI5" s="102"/>
+      <c r="AJ5" s="102"/>
+      <c r="AK5" s="102"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="102"/>
+      <c r="AN5" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="AO5" s="100"/>
-      <c r="AP5" s="100"/>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="100"/>
-      <c r="AS5" s="100"/>
-      <c r="AT5" s="100"/>
-      <c r="AU5" s="100"/>
-      <c r="AV5" s="100"/>
-      <c r="AW5" s="100"/>
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="90"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
       <c r="M6" s="104"/>
       <c r="N6" s="104"/>
       <c r="O6" s="104"/>
       <c r="P6" s="104"/>
       <c r="Q6" s="104"/>
       <c r="R6" s="104"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="105"/>
-      <c r="AA6" s="105"/>
-      <c r="AB6" s="105"/>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="100"/>
-      <c r="AO6" s="100"/>
-      <c r="AP6" s="100"/>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="100"/>
-      <c r="AS6" s="100"/>
-      <c r="AT6" s="100"/>
-      <c r="AU6" s="100"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="100"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="102"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="104"/>
       <c r="N7" s="104"/>
       <c r="O7" s="104"/>
       <c r="P7" s="104"/>
       <c r="Q7" s="104"/>
       <c r="R7" s="104"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="100"/>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
-      <c r="AU7" s="100"/>
-      <c r="AV7" s="100"/>
-      <c r="AW7" s="100"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="102"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="102"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="104"/>
       <c r="N8" s="104"/>
       <c r="O8" s="104"/>
       <c r="P8" s="104"/>
       <c r="Q8" s="104"/>
       <c r="R8" s="104"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="100"/>
-      <c r="AO8" s="100"/>
-      <c r="AP8" s="100"/>
-      <c r="AQ8" s="100"/>
-      <c r="AR8" s="100"/>
-      <c r="AS8" s="100"/>
-      <c r="AT8" s="100"/>
-      <c r="AU8" s="100"/>
-      <c r="AV8" s="100"/>
-      <c r="AW8" s="100"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="102"/>
+      <c r="AJ8" s="102"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="102"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90"/>
+      <c r="AV8" s="90"/>
+      <c r="AW8" s="90"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
       <c r="M9" s="104"/>
       <c r="N9" s="104"/>
       <c r="O9" s="104"/>
       <c r="P9" s="104"/>
       <c r="Q9" s="104"/>
       <c r="R9" s="104"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="105"/>
-      <c r="X9" s="105"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="105"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="105"/>
-      <c r="AE9" s="105"/>
-      <c r="AF9" s="105"/>
-      <c r="AG9" s="105"/>
-      <c r="AH9" s="105"/>
-      <c r="AI9" s="105"/>
-      <c r="AJ9" s="105"/>
-      <c r="AK9" s="105"/>
-      <c r="AL9" s="105"/>
-      <c r="AM9" s="105"/>
-      <c r="AN9" s="100"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="100"/>
-      <c r="AQ9" s="100"/>
-      <c r="AR9" s="100"/>
-      <c r="AS9" s="100"/>
-      <c r="AT9" s="100"/>
-      <c r="AU9" s="100"/>
-      <c r="AV9" s="100"/>
-      <c r="AW9" s="100"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="104"/>
       <c r="N10" s="104"/>
       <c r="O10" s="104"/>
       <c r="P10" s="104"/>
       <c r="Q10" s="104"/>
       <c r="R10" s="104"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="105"/>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="105"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="105"/>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="100"/>
-      <c r="AO10" s="100"/>
-      <c r="AP10" s="100"/>
-      <c r="AQ10" s="100"/>
-      <c r="AR10" s="100"/>
-      <c r="AS10" s="100"/>
-      <c r="AT10" s="100"/>
-      <c r="AU10" s="100"/>
-      <c r="AV10" s="100"/>
-      <c r="AW10" s="100"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="110"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="100"/>
-      <c r="AO11" s="100"/>
-      <c r="AP11" s="100"/>
-      <c r="AQ11" s="100"/>
-      <c r="AR11" s="100"/>
-      <c r="AS11" s="100"/>
-      <c r="AT11" s="100"/>
-      <c r="AU11" s="100"/>
-      <c r="AV11" s="100"/>
-      <c r="AW11" s="100"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
+      <c r="AL11" s="103"/>
+      <c r="AM11" s="103"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="109"/>
-      <c r="AK12" s="109"/>
-      <c r="AL12" s="109"/>
-      <c r="AM12" s="109"/>
-      <c r="AN12" s="100"/>
-      <c r="AO12" s="100"/>
-      <c r="AP12" s="100"/>
-      <c r="AQ12" s="100"/>
-      <c r="AR12" s="100"/>
-      <c r="AS12" s="100"/>
-      <c r="AT12" s="100"/>
-      <c r="AU12" s="100"/>
-      <c r="AV12" s="100"/>
-      <c r="AW12" s="100"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="96"/>
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="96"/>
+      <c r="AJ12" s="96"/>
+      <c r="AK12" s="96"/>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="109"/>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="109"/>
-      <c r="AK13" s="109"/>
-      <c r="AL13" s="109"/>
-      <c r="AM13" s="109"/>
-      <c r="AN13" s="100"/>
-      <c r="AO13" s="100"/>
-      <c r="AP13" s="100"/>
-      <c r="AQ13" s="100"/>
-      <c r="AR13" s="100"/>
-      <c r="AS13" s="100"/>
-      <c r="AT13" s="100"/>
-      <c r="AU13" s="100"/>
-      <c r="AV13" s="100"/>
-      <c r="AW13" s="100"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="96"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="96"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
+      <c r="AW13" s="90"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="105"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="105"/>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="105"/>
-      <c r="AH14" s="105"/>
-      <c r="AI14" s="105"/>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="105"/>
-      <c r="AL14" s="105"/>
-      <c r="AM14" s="105"/>
-      <c r="AN14" s="100"/>
-      <c r="AO14" s="100"/>
-      <c r="AP14" s="100"/>
-      <c r="AQ14" s="100"/>
-      <c r="AR14" s="100"/>
-      <c r="AS14" s="100"/>
-      <c r="AT14" s="100"/>
-      <c r="AU14" s="100"/>
-      <c r="AV14" s="100"/>
-      <c r="AW14" s="100"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="102"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="90"/>
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="90"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="90"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="109"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="109"/>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="109"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="109"/>
-      <c r="AD15" s="109"/>
-      <c r="AE15" s="109"/>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="109"/>
-      <c r="AK15" s="109"/>
-      <c r="AL15" s="109"/>
-      <c r="AM15" s="109"/>
-      <c r="AN15" s="100"/>
-      <c r="AO15" s="100"/>
-      <c r="AP15" s="100"/>
-      <c r="AQ15" s="100"/>
-      <c r="AR15" s="100"/>
-      <c r="AS15" s="100"/>
-      <c r="AT15" s="100"/>
-      <c r="AU15" s="100"/>
-      <c r="AV15" s="100"/>
-      <c r="AW15" s="100"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96"/>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="96"/>
+      <c r="AG15" s="96"/>
+      <c r="AH15" s="96"/>
+      <c r="AI15" s="96"/>
+      <c r="AJ15" s="96"/>
+      <c r="AK15" s="96"/>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="90"/>
+      <c r="AW15" s="90"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="109"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="109"/>
-      <c r="AK16" s="109"/>
-      <c r="AL16" s="109"/>
-      <c r="AM16" s="109"/>
-      <c r="AN16" s="100"/>
-      <c r="AO16" s="100"/>
-      <c r="AP16" s="100"/>
-      <c r="AQ16" s="100"/>
-      <c r="AR16" s="100"/>
-      <c r="AS16" s="100"/>
-      <c r="AT16" s="100"/>
-      <c r="AU16" s="100"/>
-      <c r="AV16" s="100"/>
-      <c r="AW16" s="100"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="96"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="96"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="96"/>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="96"/>
+      <c r="AN16" s="90"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="90"/>
+      <c r="AT16" s="90"/>
+      <c r="AU16" s="90"/>
+      <c r="AV16" s="90"/>
+      <c r="AW16" s="90"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="109"/>
-      <c r="AD17" s="109"/>
-      <c r="AE17" s="109"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="109"/>
-      <c r="AH17" s="109"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="109"/>
-      <c r="AL17" s="109"/>
-      <c r="AM17" s="109"/>
-      <c r="AN17" s="100"/>
-      <c r="AO17" s="100"/>
-      <c r="AP17" s="100"/>
-      <c r="AQ17" s="100"/>
-      <c r="AR17" s="100"/>
-      <c r="AS17" s="100"/>
-      <c r="AT17" s="100"/>
-      <c r="AU17" s="100"/>
-      <c r="AV17" s="100"/>
-      <c r="AW17" s="100"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="96"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="96"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="90"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="100"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="109"/>
-      <c r="AC18" s="109"/>
-      <c r="AD18" s="109"/>
-      <c r="AE18" s="109"/>
-      <c r="AF18" s="109"/>
-      <c r="AG18" s="109"/>
-      <c r="AH18" s="109"/>
-      <c r="AI18" s="109"/>
-      <c r="AJ18" s="109"/>
-      <c r="AK18" s="109"/>
-      <c r="AL18" s="109"/>
-      <c r="AM18" s="109"/>
-      <c r="AN18" s="100"/>
-      <c r="AO18" s="100"/>
-      <c r="AP18" s="100"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="100"/>
-      <c r="AS18" s="100"/>
-      <c r="AT18" s="100"/>
-      <c r="AU18" s="100"/>
-      <c r="AV18" s="100"/>
-      <c r="AW18" s="100"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="96"/>
+      <c r="AG18" s="96"/>
+      <c r="AH18" s="96"/>
+      <c r="AI18" s="96"/>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="96"/>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="96"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="109"/>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="109"/>
-      <c r="AB19" s="109"/>
-      <c r="AC19" s="109"/>
-      <c r="AD19" s="109"/>
-      <c r="AE19" s="109"/>
-      <c r="AF19" s="109"/>
-      <c r="AG19" s="109"/>
-      <c r="AH19" s="109"/>
-      <c r="AI19" s="109"/>
-      <c r="AJ19" s="109"/>
-      <c r="AK19" s="109"/>
-      <c r="AL19" s="109"/>
-      <c r="AM19" s="109"/>
-      <c r="AN19" s="100"/>
-      <c r="AO19" s="100"/>
-      <c r="AP19" s="100"/>
-      <c r="AQ19" s="100"/>
-      <c r="AR19" s="100"/>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="100"/>
-      <c r="AU19" s="100"/>
-      <c r="AV19" s="100"/>
-      <c r="AW19" s="100"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="96"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="96"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="90"/>
+      <c r="AU19" s="90"/>
+      <c r="AV19" s="90"/>
+      <c r="AW19" s="90"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="109"/>
-      <c r="AJ20" s="109"/>
-      <c r="AK20" s="109"/>
-      <c r="AL20" s="109"/>
-      <c r="AM20" s="109"/>
-      <c r="AN20" s="100"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="100"/>
-      <c r="AQ20" s="100"/>
-      <c r="AR20" s="100"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="100"/>
-      <c r="AU20" s="100"/>
-      <c r="AV20" s="100"/>
-      <c r="AW20" s="100"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="96"/>
+      <c r="AG20" s="96"/>
+      <c r="AH20" s="96"/>
+      <c r="AI20" s="96"/>
+      <c r="AJ20" s="96"/>
+      <c r="AK20" s="96"/>
+      <c r="AL20" s="96"/>
+      <c r="AM20" s="96"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="90"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="90"/>
+      <c r="AV20" s="90"/>
+      <c r="AW20" s="90"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="109"/>
-      <c r="W21" s="109"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="109"/>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="109"/>
-      <c r="AF21" s="109"/>
-      <c r="AG21" s="109"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="109"/>
-      <c r="AJ21" s="109"/>
-      <c r="AK21" s="109"/>
-      <c r="AL21" s="109"/>
-      <c r="AM21" s="109"/>
-      <c r="AN21" s="100"/>
-      <c r="AO21" s="100"/>
-      <c r="AP21" s="100"/>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="100"/>
-      <c r="AS21" s="100"/>
-      <c r="AT21" s="100"/>
-      <c r="AU21" s="100"/>
-      <c r="AV21" s="100"/>
-      <c r="AW21" s="100"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="96"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="96"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="96"/>
+      <c r="AG21" s="96"/>
+      <c r="AH21" s="96"/>
+      <c r="AI21" s="96"/>
+      <c r="AJ21" s="96"/>
+      <c r="AK21" s="96"/>
+      <c r="AL21" s="96"/>
+      <c r="AM21" s="96"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="109"/>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="109"/>
-      <c r="AF22" s="109"/>
-      <c r="AG22" s="109"/>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="109"/>
-      <c r="AJ22" s="109"/>
-      <c r="AK22" s="109"/>
-      <c r="AL22" s="109"/>
-      <c r="AM22" s="109"/>
-      <c r="AN22" s="100"/>
-      <c r="AO22" s="100"/>
-      <c r="AP22" s="100"/>
-      <c r="AQ22" s="100"/>
-      <c r="AR22" s="100"/>
-      <c r="AS22" s="100"/>
-      <c r="AT22" s="100"/>
-      <c r="AU22" s="100"/>
-      <c r="AV22" s="100"/>
-      <c r="AW22" s="100"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="96"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="96"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="90"/>
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="90"/>
+      <c r="AV22" s="90"/>
+      <c r="AW22" s="90"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="109"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="109"/>
-      <c r="AF23" s="109"/>
-      <c r="AG23" s="109"/>
-      <c r="AH23" s="109"/>
-      <c r="AI23" s="109"/>
-      <c r="AJ23" s="109"/>
-      <c r="AK23" s="109"/>
-      <c r="AL23" s="109"/>
-      <c r="AM23" s="109"/>
-      <c r="AN23" s="100"/>
-      <c r="AO23" s="100"/>
-      <c r="AP23" s="100"/>
-      <c r="AQ23" s="100"/>
-      <c r="AR23" s="100"/>
-      <c r="AS23" s="100"/>
-      <c r="AT23" s="100"/>
-      <c r="AU23" s="100"/>
-      <c r="AV23" s="100"/>
-      <c r="AW23" s="100"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="96"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="96"/>
+      <c r="AI23" s="96"/>
+      <c r="AJ23" s="96"/>
+      <c r="AK23" s="96"/>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="96"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="90"/>
+      <c r="AV23" s="90"/>
+      <c r="AW23" s="90"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="109"/>
-      <c r="W24" s="109"/>
-      <c r="X24" s="109"/>
-      <c r="Y24" s="109"/>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="109"/>
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="109"/>
-      <c r="AD24" s="109"/>
-      <c r="AE24" s="109"/>
-      <c r="AF24" s="109"/>
-      <c r="AG24" s="109"/>
-      <c r="AH24" s="109"/>
-      <c r="AI24" s="109"/>
-      <c r="AJ24" s="109"/>
-      <c r="AK24" s="109"/>
-      <c r="AL24" s="109"/>
-      <c r="AM24" s="109"/>
-      <c r="AN24" s="100"/>
-      <c r="AO24" s="100"/>
-      <c r="AP24" s="100"/>
-      <c r="AQ24" s="100"/>
-      <c r="AR24" s="100"/>
-      <c r="AS24" s="100"/>
-      <c r="AT24" s="100"/>
-      <c r="AU24" s="100"/>
-      <c r="AV24" s="100"/>
-      <c r="AW24" s="100"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="96"/>
+      <c r="AG24" s="96"/>
+      <c r="AH24" s="96"/>
+      <c r="AI24" s="96"/>
+      <c r="AJ24" s="96"/>
+      <c r="AK24" s="96"/>
+      <c r="AL24" s="96"/>
+      <c r="AM24" s="96"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="50"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="109"/>
-      <c r="W25" s="109"/>
-      <c r="X25" s="109"/>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="109"/>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="109"/>
-      <c r="AD25" s="109"/>
-      <c r="AE25" s="109"/>
-      <c r="AF25" s="109"/>
-      <c r="AG25" s="109"/>
-      <c r="AH25" s="109"/>
-      <c r="AI25" s="109"/>
-      <c r="AJ25" s="109"/>
-      <c r="AK25" s="109"/>
-      <c r="AL25" s="109"/>
-      <c r="AM25" s="109"/>
-      <c r="AN25" s="100"/>
-      <c r="AO25" s="100"/>
-      <c r="AP25" s="100"/>
-      <c r="AQ25" s="100"/>
-      <c r="AR25" s="100"/>
-      <c r="AS25" s="100"/>
-      <c r="AT25" s="100"/>
-      <c r="AU25" s="100"/>
-      <c r="AV25" s="100"/>
-      <c r="AW25" s="100"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="96"/>
+      <c r="AC25" s="96"/>
+      <c r="AD25" s="96"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="96"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="96"/>
+      <c r="AI25" s="96"/>
+      <c r="AJ25" s="96"/>
+      <c r="AK25" s="96"/>
+      <c r="AL25" s="96"/>
+      <c r="AM25" s="96"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="90"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="50"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="109"/>
-      <c r="W26" s="109"/>
-      <c r="X26" s="109"/>
-      <c r="Y26" s="109"/>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="109"/>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="109"/>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="109"/>
-      <c r="AF26" s="109"/>
-      <c r="AG26" s="109"/>
-      <c r="AH26" s="109"/>
-      <c r="AI26" s="109"/>
-      <c r="AJ26" s="109"/>
-      <c r="AK26" s="109"/>
-      <c r="AL26" s="109"/>
-      <c r="AM26" s="109"/>
-      <c r="AN26" s="100"/>
-      <c r="AO26" s="100"/>
-      <c r="AP26" s="100"/>
-      <c r="AQ26" s="100"/>
-      <c r="AR26" s="100"/>
-      <c r="AS26" s="100"/>
-      <c r="AT26" s="100"/>
-      <c r="AU26" s="100"/>
-      <c r="AV26" s="100"/>
-      <c r="AW26" s="100"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="96"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="96"/>
+      <c r="AI26" s="96"/>
+      <c r="AJ26" s="96"/>
+      <c r="AK26" s="96"/>
+      <c r="AL26" s="96"/>
+      <c r="AM26" s="96"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="90"/>
+      <c r="AP26" s="90"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="90"/>
+      <c r="AV26" s="90"/>
+      <c r="AW26" s="90"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="109"/>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="109"/>
-      <c r="AI27" s="109"/>
-      <c r="AJ27" s="109"/>
-      <c r="AK27" s="109"/>
-      <c r="AL27" s="109"/>
-      <c r="AM27" s="109"/>
-      <c r="AN27" s="100"/>
-      <c r="AO27" s="100"/>
-      <c r="AP27" s="100"/>
-      <c r="AQ27" s="100"/>
-      <c r="AR27" s="100"/>
-      <c r="AS27" s="100"/>
-      <c r="AT27" s="100"/>
-      <c r="AU27" s="100"/>
-      <c r="AV27" s="100"/>
-      <c r="AW27" s="100"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="96"/>
+      <c r="AD27" s="96"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="96"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="96"/>
+      <c r="AI27" s="96"/>
+      <c r="AJ27" s="96"/>
+      <c r="AK27" s="96"/>
+      <c r="AL27" s="96"/>
+      <c r="AM27" s="96"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="109"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="109"/>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="109"/>
-      <c r="AF28" s="109"/>
-      <c r="AG28" s="109"/>
-      <c r="AH28" s="109"/>
-      <c r="AI28" s="109"/>
-      <c r="AJ28" s="109"/>
-      <c r="AK28" s="109"/>
-      <c r="AL28" s="109"/>
-      <c r="AM28" s="109"/>
-      <c r="AN28" s="100"/>
-      <c r="AO28" s="100"/>
-      <c r="AP28" s="100"/>
-      <c r="AQ28" s="100"/>
-      <c r="AR28" s="100"/>
-      <c r="AS28" s="100"/>
-      <c r="AT28" s="100"/>
-      <c r="AU28" s="100"/>
-      <c r="AV28" s="100"/>
-      <c r="AW28" s="100"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="96"/>
+      <c r="AG28" s="96"/>
+      <c r="AH28" s="96"/>
+      <c r="AI28" s="96"/>
+      <c r="AJ28" s="96"/>
+      <c r="AK28" s="96"/>
+      <c r="AL28" s="96"/>
+      <c r="AM28" s="96"/>
+      <c r="AN28" s="90"/>
+      <c r="AO28" s="90"/>
+      <c r="AP28" s="90"/>
+      <c r="AQ28" s="90"/>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="90"/>
+      <c r="AV28" s="90"/>
+      <c r="AW28" s="90"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="109"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="109"/>
-      <c r="AF29" s="109"/>
-      <c r="AG29" s="109"/>
-      <c r="AH29" s="109"/>
-      <c r="AI29" s="109"/>
-      <c r="AJ29" s="109"/>
-      <c r="AK29" s="109"/>
-      <c r="AL29" s="109"/>
-      <c r="AM29" s="109"/>
-      <c r="AN29" s="100"/>
-      <c r="AO29" s="100"/>
-      <c r="AP29" s="100"/>
-      <c r="AQ29" s="100"/>
-      <c r="AR29" s="100"/>
-      <c r="AS29" s="100"/>
-      <c r="AT29" s="100"/>
-      <c r="AU29" s="100"/>
-      <c r="AV29" s="100"/>
-      <c r="AW29" s="100"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="96"/>
+      <c r="Z29" s="96"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96"/>
+      <c r="AC29" s="96"/>
+      <c r="AD29" s="96"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="96"/>
+      <c r="AG29" s="96"/>
+      <c r="AH29" s="96"/>
+      <c r="AI29" s="96"/>
+      <c r="AJ29" s="96"/>
+      <c r="AK29" s="96"/>
+      <c r="AL29" s="96"/>
+      <c r="AM29" s="96"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="109"/>
-      <c r="W30" s="109"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="109"/>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="109"/>
-      <c r="AE30" s="109"/>
-      <c r="AF30" s="109"/>
-      <c r="AG30" s="109"/>
-      <c r="AH30" s="109"/>
-      <c r="AI30" s="109"/>
-      <c r="AJ30" s="109"/>
-      <c r="AK30" s="109"/>
-      <c r="AL30" s="109"/>
-      <c r="AM30" s="109"/>
-      <c r="AN30" s="100"/>
-      <c r="AO30" s="100"/>
-      <c r="AP30" s="100"/>
-      <c r="AQ30" s="100"/>
-      <c r="AR30" s="100"/>
-      <c r="AS30" s="100"/>
-      <c r="AT30" s="100"/>
-      <c r="AU30" s="100"/>
-      <c r="AV30" s="100"/>
-      <c r="AW30" s="100"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="96"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="96"/>
+      <c r="AI30" s="96"/>
+      <c r="AJ30" s="96"/>
+      <c r="AK30" s="96"/>
+      <c r="AL30" s="96"/>
+      <c r="AM30" s="96"/>
+      <c r="AN30" s="90"/>
+      <c r="AO30" s="90"/>
+      <c r="AP30" s="90"/>
+      <c r="AQ30" s="90"/>
+      <c r="AR30" s="90"/>
+      <c r="AS30" s="90"/>
+      <c r="AT30" s="90"/>
+      <c r="AU30" s="90"/>
+      <c r="AV30" s="90"/>
+      <c r="AW30" s="90"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="109"/>
-      <c r="AA31" s="109"/>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="109"/>
-      <c r="AD31" s="109"/>
-      <c r="AE31" s="109"/>
-      <c r="AF31" s="109"/>
-      <c r="AG31" s="109"/>
-      <c r="AH31" s="109"/>
-      <c r="AI31" s="109"/>
-      <c r="AJ31" s="109"/>
-      <c r="AK31" s="109"/>
-      <c r="AL31" s="109"/>
-      <c r="AM31" s="109"/>
-      <c r="AN31" s="100"/>
-      <c r="AO31" s="100"/>
-      <c r="AP31" s="100"/>
-      <c r="AQ31" s="100"/>
-      <c r="AR31" s="100"/>
-      <c r="AS31" s="100"/>
-      <c r="AT31" s="100"/>
-      <c r="AU31" s="100"/>
-      <c r="AV31" s="100"/>
-      <c r="AW31" s="100"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="96"/>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="96"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="96"/>
+      <c r="AI31" s="96"/>
+      <c r="AJ31" s="96"/>
+      <c r="AK31" s="96"/>
+      <c r="AL31" s="96"/>
+      <c r="AM31" s="96"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="90"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="90"/>
+      <c r="AR31" s="90"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="90"/>
+      <c r="AU31" s="90"/>
+      <c r="AV31" s="90"/>
+      <c r="AW31" s="90"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="109"/>
-      <c r="W32" s="109"/>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="109"/>
-      <c r="AF32" s="109"/>
-      <c r="AG32" s="109"/>
-      <c r="AH32" s="109"/>
-      <c r="AI32" s="109"/>
-      <c r="AJ32" s="109"/>
-      <c r="AK32" s="109"/>
-      <c r="AL32" s="109"/>
-      <c r="AM32" s="109"/>
-      <c r="AN32" s="100"/>
-      <c r="AO32" s="100"/>
-      <c r="AP32" s="100"/>
-      <c r="AQ32" s="100"/>
-      <c r="AR32" s="100"/>
-      <c r="AS32" s="100"/>
-      <c r="AT32" s="100"/>
-      <c r="AU32" s="100"/>
-      <c r="AV32" s="100"/>
-      <c r="AW32" s="100"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="96"/>
+      <c r="AG32" s="96"/>
+      <c r="AH32" s="96"/>
+      <c r="AI32" s="96"/>
+      <c r="AJ32" s="96"/>
+      <c r="AK32" s="96"/>
+      <c r="AL32" s="96"/>
+      <c r="AM32" s="96"/>
+      <c r="AN32" s="90"/>
+      <c r="AO32" s="90"/>
+      <c r="AP32" s="90"/>
+      <c r="AQ32" s="90"/>
+      <c r="AR32" s="90"/>
+      <c r="AS32" s="90"/>
+      <c r="AT32" s="90"/>
+      <c r="AU32" s="90"/>
+      <c r="AV32" s="90"/>
+      <c r="AW32" s="90"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="108"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="100"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="109"/>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="109"/>
-      <c r="AJ33" s="109"/>
-      <c r="AK33" s="109"/>
-      <c r="AL33" s="109"/>
-      <c r="AM33" s="109"/>
-      <c r="AN33" s="100"/>
-      <c r="AO33" s="100"/>
-      <c r="AP33" s="100"/>
-      <c r="AQ33" s="100"/>
-      <c r="AR33" s="100"/>
-      <c r="AS33" s="100"/>
-      <c r="AT33" s="100"/>
-      <c r="AU33" s="100"/>
-      <c r="AV33" s="100"/>
-      <c r="AW33" s="100"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="96"/>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="96"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="96"/>
+      <c r="AI33" s="96"/>
+      <c r="AJ33" s="96"/>
+      <c r="AK33" s="96"/>
+      <c r="AL33" s="96"/>
+      <c r="AM33" s="96"/>
+      <c r="AN33" s="90"/>
+      <c r="AO33" s="90"/>
+      <c r="AP33" s="90"/>
+      <c r="AQ33" s="90"/>
+      <c r="AR33" s="90"/>
+      <c r="AS33" s="90"/>
+      <c r="AT33" s="90"/>
+      <c r="AU33" s="90"/>
+      <c r="AV33" s="90"/>
+      <c r="AW33" s="90"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="100"/>
-      <c r="V34" s="109"/>
-      <c r="W34" s="109"/>
-      <c r="X34" s="109"/>
-      <c r="Y34" s="109"/>
-      <c r="Z34" s="109"/>
-      <c r="AA34" s="109"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="109"/>
-      <c r="AD34" s="109"/>
-      <c r="AE34" s="109"/>
-      <c r="AF34" s="109"/>
-      <c r="AG34" s="109"/>
-      <c r="AH34" s="109"/>
-      <c r="AI34" s="109"/>
-      <c r="AJ34" s="109"/>
-      <c r="AK34" s="109"/>
-      <c r="AL34" s="109"/>
-      <c r="AM34" s="109"/>
-      <c r="AN34" s="100"/>
-      <c r="AO34" s="100"/>
-      <c r="AP34" s="100"/>
-      <c r="AQ34" s="100"/>
-      <c r="AR34" s="100"/>
-      <c r="AS34" s="100"/>
-      <c r="AT34" s="100"/>
-      <c r="AU34" s="100"/>
-      <c r="AV34" s="100"/>
-      <c r="AW34" s="100"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="96"/>
+      <c r="W34" s="96"/>
+      <c r="X34" s="96"/>
+      <c r="Y34" s="96"/>
+      <c r="Z34" s="96"/>
+      <c r="AA34" s="96"/>
+      <c r="AB34" s="96"/>
+      <c r="AC34" s="96"/>
+      <c r="AD34" s="96"/>
+      <c r="AE34" s="96"/>
+      <c r="AF34" s="96"/>
+      <c r="AG34" s="96"/>
+      <c r="AH34" s="96"/>
+      <c r="AI34" s="96"/>
+      <c r="AJ34" s="96"/>
+      <c r="AK34" s="96"/>
+      <c r="AL34" s="96"/>
+      <c r="AM34" s="96"/>
+      <c r="AN34" s="90"/>
+      <c r="AO34" s="90"/>
+      <c r="AP34" s="90"/>
+      <c r="AQ34" s="90"/>
+      <c r="AR34" s="90"/>
+      <c r="AS34" s="90"/>
+      <c r="AT34" s="90"/>
+      <c r="AU34" s="90"/>
+      <c r="AV34" s="90"/>
+      <c r="AW34" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -5419,239 +5618,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5732,14 +5698,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="123">
+      <c r="AO1" s="117">
         <f>変更履歴!E5</f>
         <v>43768</v>
       </c>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="125"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="119"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -5748,17 +5714,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="126" t="str">
+      <c r="AZ1" s="120" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="BA1" s="127"/>
-      <c r="BB1" s="127"/>
-      <c r="BC1" s="127"/>
-      <c r="BD1" s="127"/>
-      <c r="BE1" s="127"/>
-      <c r="BF1" s="127"/>
-      <c r="BG1" s="128"/>
+      <c r="BA1" s="121"/>
+      <c r="BB1" s="121"/>
+      <c r="BC1" s="121"/>
+      <c r="BD1" s="121"/>
+      <c r="BE1" s="121"/>
+      <c r="BF1" s="121"/>
+      <c r="BG1" s="122"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -5783,7 +5749,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="36" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
@@ -5811,11 +5777,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="125"/>
+      <c r="AO2" s="117"/>
+      <c r="AP2" s="118"/>
+      <c r="AQ2" s="118"/>
+      <c r="AR2" s="118"/>
+      <c r="AS2" s="119"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -5824,14 +5790,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="127"/>
-      <c r="BB2" s="127"/>
-      <c r="BC2" s="127"/>
-      <c r="BD2" s="127"/>
-      <c r="BE2" s="127"/>
-      <c r="BF2" s="127"/>
-      <c r="BG2" s="128"/>
+      <c r="AZ2" s="120"/>
+      <c r="BA2" s="121"/>
+      <c r="BB2" s="121"/>
+      <c r="BC2" s="121"/>
+      <c r="BD2" s="121"/>
+      <c r="BE2" s="121"/>
+      <c r="BF2" s="121"/>
+      <c r="BG2" s="122"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -6995,10 +6961,10 @@
     </row>
     <row r="37" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="118"/>
+      <c r="C37" s="126"/>
       <c r="D37" s="71" t="s">
         <v>65</v>
       </c>
@@ -7081,8 +7047,8 @@
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A38" s="28"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="120"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="65"/>
       <c r="E38" s="69"/>
       <c r="F38" s="69"/>
@@ -7110,14 +7076,14 @@
       <c r="AB38" s="69"/>
       <c r="AC38" s="69"/>
       <c r="AD38" s="70"/>
-      <c r="AE38" s="121"/>
-      <c r="AF38" s="122"/>
-      <c r="AG38" s="121"/>
-      <c r="AH38" s="122"/>
-      <c r="AI38" s="121"/>
-      <c r="AJ38" s="122"/>
-      <c r="AK38" s="121"/>
-      <c r="AL38" s="122"/>
+      <c r="AE38" s="123"/>
+      <c r="AF38" s="124"/>
+      <c r="AG38" s="123"/>
+      <c r="AH38" s="124"/>
+      <c r="AI38" s="123"/>
+      <c r="AJ38" s="124"/>
+      <c r="AK38" s="123"/>
+      <c r="AL38" s="124"/>
       <c r="AM38" s="66"/>
       <c r="AN38" s="67"/>
       <c r="AO38" s="67"/>
@@ -7154,21 +7120,21 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -7287,7 +7253,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="123">
+      <c r="CD1" s="117">
         <f>変更履歴!E5</f>
         <v>43768</v>
       </c>
@@ -7309,7 +7275,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="126" t="str">
+      <c r="CU1" s="120" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -7440,7 +7406,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="126"/>
+      <c r="CU2" s="120"/>
       <c r="CV2" s="129"/>
       <c r="CW2" s="129"/>
       <c r="CX2" s="129"/>
@@ -7533,7 +7499,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -7654,22 +7620,22 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="109" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="135" t="s">
@@ -7678,13 +7644,13 @@
       <c r="J6" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="109" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="59" t="s">
@@ -7697,17 +7663,17 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
       <c r="I7" s="135"/>
       <c r="J7" s="135"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
       <c r="N7" s="75" t="s">
         <v>51</v>
       </c>
@@ -7775,22 +7741,22 @@
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="109" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="135" t="s">
@@ -7799,13 +7765,13 @@
       <c r="J10" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="92" t="s">
+      <c r="L10" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="92" t="s">
+      <c r="M10" s="109" t="s">
         <v>32</v>
       </c>
       <c r="N10" s="59" t="s">
@@ -7820,17 +7786,17 @@
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
       <c r="I11" s="135"/>
       <c r="J11" s="135"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
       <c r="N11" s="42" t="s">
         <v>51</v>
       </c>
@@ -7852,7 +7818,7 @@
         <v>83</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>97</v>
@@ -7888,7 +7854,7 @@
         <v>33</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -7901,10 +7867,10 @@
         <v>84</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>37</v>
@@ -7937,7 +7903,7 @@
         <v>33</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -7950,10 +7916,10 @@
         <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>37</v>
@@ -7986,7 +7952,7 @@
         <v>33</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -7999,7 +7965,7 @@
         <v>86</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>99</v>
@@ -8035,7 +8001,7 @@
         <v>33</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -8048,7 +8014,7 @@
         <v>87</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>100</v>
@@ -8084,7 +8050,7 @@
         <v>33</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -8097,7 +8063,7 @@
         <v>88</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>101</v>
@@ -8133,60 +8099,28 @@
         <v>33</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="7">
-        <v>7</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="H6:H7"/>
@@ -8194,23 +8128,6 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8226,7 +8143,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ34"/>
+  <dimension ref="A1:AZ31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -8284,7 +8201,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="123">
+      <c r="AI1" s="117">
         <f>変更履歴!E5</f>
         <v>43768</v>
       </c>
@@ -8300,7 +8217,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="126" t="str">
+      <c r="AT1" s="120" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -8371,7 +8288,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="126"/>
+      <c r="AT2" s="120"/>
       <c r="AU2" s="129"/>
       <c r="AV2" s="129"/>
       <c r="AW2" s="129"/>
@@ -8830,20 +8747,20 @@
         <v>3</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
       <c r="G14" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="22"/>
       <c r="L14" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
@@ -8987,20 +8904,20 @@
         <v>4</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
       <c r="G17" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="22"/>
       <c r="L17" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -9144,20 +9061,20 @@
         <v>5</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
       <c r="G20" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
       <c r="L20" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -9300,21 +9217,21 @@
       <c r="B23" s="20">
         <v>6</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="C23" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="22"/>
       <c r="L23" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
@@ -9355,10 +9272,10 @@
     </row>
     <row r="24" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="62"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="141"/>
       <c r="G24" s="61" t="s">
         <v>63</v>
       </c>
@@ -9406,10 +9323,10 @@
     </row>
     <row r="25" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B25" s="24"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="62"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="144"/>
       <c r="G25" s="61"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -9457,21 +9374,21 @@
       <c r="B26" s="20">
         <v>7</v>
       </c>
-      <c r="C26" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
+      <c r="C26" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
       <c r="L26" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
@@ -9512,10 +9429,10 @@
     </row>
     <row r="27" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B27" s="61"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="61" t="s">
         <v>63</v>
       </c>
@@ -9563,10 +9480,10 @@
     </row>
     <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B28" s="24"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="144"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="61"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -9610,25 +9527,25 @@
       <c r="AU28" s="23"/>
       <c r="AV28" s="62"/>
     </row>
-    <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="20">
         <v>8</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
+      <c r="C29" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
       <c r="L29" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
@@ -9669,10 +9586,10 @@
     </row>
     <row r="30" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="62"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="61" t="s">
         <v>63</v>
       </c>
@@ -9720,10 +9637,10 @@
     </row>
     <row r="31" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="24"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="62"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="61"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -9767,166 +9684,9 @@
       <c r="AU31" s="23"/>
       <c r="AV31" s="62"/>
     </row>
-    <row r="32" spans="2:48" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="20">
-        <v>9</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="21"/>
-      <c r="AM32" s="21"/>
-      <c r="AN32" s="21"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="21"/>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="22"/>
-    </row>
-    <row r="33" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="61"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
-      <c r="AF33" s="23"/>
-      <c r="AG33" s="23"/>
-      <c r="AH33" s="23"/>
-      <c r="AI33" s="23"/>
-      <c r="AJ33" s="23"/>
-      <c r="AK33" s="23"/>
-      <c r="AL33" s="23"/>
-      <c r="AM33" s="23"/>
-      <c r="AN33" s="23"/>
-      <c r="AO33" s="23"/>
-      <c r="AP33" s="23"/>
-      <c r="AQ33" s="23"/>
-      <c r="AR33" s="23"/>
-      <c r="AS33" s="23"/>
-      <c r="AT33" s="23"/>
-      <c r="AU33" s="23"/>
-      <c r="AV33" s="62"/>
-    </row>
-    <row r="34" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="24"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23"/>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23"/>
-      <c r="AQ34" s="23"/>
-      <c r="AR34" s="23"/>
-      <c r="AS34" s="23"/>
-      <c r="AT34" s="23"/>
-      <c r="AU34" s="23"/>
-      <c r="AV34" s="62"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C26:F28"/>
+    <mergeCell ref="C23:F25"/>
     <mergeCell ref="AI1:AM1"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
@@ -9935,7 +9695,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;F&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
@@ -9947,7 +9707,7 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -10005,7 +9765,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="123">
+      <c r="AI1" s="117">
         <f>変更履歴!E5</f>
         <v>43768</v>
       </c>
@@ -10021,7 +9781,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="126" t="str">
+      <c r="AT1" s="120" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -10092,7 +9852,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="126"/>
+      <c r="AT2" s="120"/>
       <c r="AU2" s="129"/>
       <c r="AV2" s="129"/>
       <c r="AW2" s="129"/>
@@ -10538,7 +10298,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -10642,7 +10402,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -10746,7 +10506,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -10850,7 +10610,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -10954,7 +10714,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -11058,7 +10818,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -11157,110 +10917,6 @@
       <c r="AV22" s="25"/>
       <c r="AW22" s="26"/>
     </row>
-    <row r="23" spans="2:49" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="20">
-        <v>9</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="21"/>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="22"/>
-    </row>
-    <row r="24" spans="2:49" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="25"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="25"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="25"/>
-      <c r="AW24" s="26"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI1:AM1"/>
@@ -11271,7 +10927,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;F&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
@@ -11341,7 +10997,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="123">
+      <c r="AI1" s="117">
         <f>変更履歴!E5</f>
         <v>43768</v>
       </c>
@@ -11357,7 +11013,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="126" t="str">
+      <c r="AT1" s="120" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -11428,7 +11084,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="126"/>
+      <c r="AT2" s="120"/>
       <c r="AU2" s="129"/>
       <c r="AV2" s="129"/>
       <c r="AW2" s="129"/>
@@ -11666,7 +11322,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;F&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
@@ -11674,12 +11330,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -11837,6 +11487,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11847,15 +11503,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11873,6 +11520,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
